--- a/t2wml_project/Ethiopia_Daily_Data_Multiple_Stations.xlsx
+++ b/t2wml_project/Ethiopia_Daily_Data_Multiple_Stations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erdonghu/github/ethiopia-discharge-modeling/t2wml_project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erdonghu/github/t2wml_projects/ethiopia_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6FA932-DE10-5A48-B0D1-E2723D0347D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8BF0375-4F7F-3347-9424-120E26C6CB00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10340" yWindow="1340" windowWidth="23260" windowHeight="12580" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14800" yWindow="1340" windowWidth="23260" windowHeight="12580" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baro" sheetId="21" r:id="rId1"/>
@@ -32805,84 +32805,125 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A3:N170"/>
+  <dimension ref="A2:N169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>45</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B6" t="s">
         <v>46</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
         <v>2</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D8" t="s">
         <v>3</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E8" t="s">
         <v>4</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F8" t="s">
         <v>5</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G8" t="s">
         <v>6</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H8" t="s">
         <v>7</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I8" t="s">
         <v>8</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J8" t="s">
         <v>9</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K8" t="s">
         <v>10</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L8" t="s">
         <v>11</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M8" t="s">
         <v>12</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N8" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="D10">
+        <v>10.102</v>
+      </c>
+      <c r="E10">
+        <v>5.452</v>
+      </c>
+      <c r="F10">
+        <v>33.451000000000001</v>
+      </c>
+      <c r="G10">
+        <v>10.78</v>
+      </c>
+      <c r="H10">
+        <v>104.10599999999999</v>
+      </c>
+      <c r="I10">
+        <v>206.59200000000001</v>
+      </c>
+      <c r="J10">
+        <v>99.977999999999994</v>
+      </c>
+      <c r="K10">
+        <v>60.767000000000003</v>
+      </c>
+      <c r="L10">
+        <v>90.013999999999996</v>
+      </c>
+      <c r="M10">
+        <v>64.013999999999996</v>
+      </c>
+      <c r="N10">
+        <v>50.784999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <v>0.26100000000000001</v>
@@ -32897,162 +32938,162 @@
         <v>33.451000000000001</v>
       </c>
       <c r="G11">
-        <v>10.78</v>
+        <v>12.57</v>
       </c>
       <c r="H11">
-        <v>104.10599999999999</v>
+        <v>103.06699999999999</v>
       </c>
       <c r="I11">
-        <v>206.59200000000001</v>
+        <v>200.80699999999999</v>
       </c>
       <c r="J11">
-        <v>99.977999999999994</v>
+        <v>94.932000000000002</v>
       </c>
       <c r="K11">
-        <v>60.767000000000003</v>
+        <v>77.825000000000003</v>
       </c>
       <c r="L11">
-        <v>90.013999999999996</v>
+        <v>89.046000000000006</v>
       </c>
       <c r="M11">
-        <v>64.013999999999996</v>
+        <v>63.195</v>
       </c>
       <c r="N11">
-        <v>50.784999999999997</v>
+        <v>55.283000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12">
         <v>0.26100000000000001</v>
       </c>
       <c r="D12">
-        <v>10.102</v>
+        <v>9.1240000000000006</v>
       </c>
       <c r="E12">
-        <v>5.452</v>
+        <v>4.2850000000000001</v>
       </c>
       <c r="F12">
         <v>33.451000000000001</v>
       </c>
       <c r="G12">
-        <v>12.57</v>
+        <v>14.494</v>
       </c>
       <c r="H12">
-        <v>103.06699999999999</v>
+        <v>102.032</v>
       </c>
       <c r="I12">
-        <v>200.80699999999999</v>
+        <v>195.10300000000001</v>
       </c>
       <c r="J12">
-        <v>94.932000000000002</v>
+        <v>91.965999999999994</v>
       </c>
       <c r="K12">
-        <v>77.825000000000003</v>
+        <v>81.483999999999995</v>
       </c>
       <c r="L12">
-        <v>89.046000000000006</v>
+        <v>84.281000000000006</v>
       </c>
       <c r="M12">
         <v>63.195</v>
       </c>
       <c r="N12">
-        <v>55.283000000000001</v>
+        <v>56.051000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13">
         <v>0.26100000000000001</v>
       </c>
       <c r="D13">
-        <v>9.1240000000000006</v>
+        <v>7.6029999999999998</v>
       </c>
       <c r="E13">
-        <v>4.2850000000000001</v>
+        <v>3.4510000000000001</v>
       </c>
       <c r="F13">
         <v>33.451000000000001</v>
       </c>
       <c r="G13">
-        <v>14.494</v>
+        <v>16.552</v>
       </c>
       <c r="H13">
-        <v>102.032</v>
+        <v>99.977999999999994</v>
       </c>
       <c r="I13">
-        <v>195.10300000000001</v>
+        <v>143.697</v>
       </c>
       <c r="J13">
-        <v>91.965999999999994</v>
+        <v>86.171999999999997</v>
       </c>
       <c r="K13">
-        <v>81.483999999999995</v>
+        <v>84.281000000000006</v>
       </c>
       <c r="L13">
-        <v>84.281000000000006</v>
+        <v>80.561000000000007</v>
       </c>
       <c r="M13">
-        <v>63.195</v>
+        <v>73.367999999999995</v>
       </c>
       <c r="N13">
-        <v>56.051000000000002</v>
+        <v>53.762999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14">
         <v>0.26100000000000001</v>
       </c>
       <c r="D14">
-        <v>7.6029999999999998</v>
+        <v>7.0330000000000004</v>
       </c>
       <c r="E14">
-        <v>3.4510000000000001</v>
+        <v>3.2559999999999998</v>
       </c>
       <c r="F14">
         <v>33.451000000000001</v>
       </c>
       <c r="G14">
-        <v>16.552</v>
+        <v>21.065999999999999</v>
       </c>
       <c r="H14">
-        <v>99.977999999999994</v>
+        <v>93.938000000000002</v>
       </c>
       <c r="I14">
-        <v>143.697</v>
+        <v>106.20099999999999</v>
       </c>
       <c r="J14">
-        <v>86.171999999999997</v>
+        <v>80.561000000000007</v>
       </c>
       <c r="K14">
-        <v>84.281000000000006</v>
+        <v>90.013999999999996</v>
       </c>
       <c r="L14">
-        <v>80.561000000000007</v>
+        <v>77.825000000000003</v>
       </c>
       <c r="M14">
-        <v>73.367999999999995</v>
+        <v>64.838999999999999</v>
       </c>
       <c r="N14">
-        <v>53.762999999999998</v>
+        <v>52.264000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15">
         <v>0.26100000000000001</v>
       </c>
       <c r="D15">
-        <v>7.0330000000000004</v>
+        <v>6.7560000000000002</v>
       </c>
       <c r="E15">
         <v>3.2559999999999998</v>
@@ -33061,7 +33102,7 @@
         <v>33.451000000000001</v>
       </c>
       <c r="G15">
-        <v>21.065999999999999</v>
+        <v>33.451000000000001</v>
       </c>
       <c r="H15">
         <v>93.938000000000002</v>
@@ -33070,30 +33111,30 @@
         <v>106.20099999999999</v>
       </c>
       <c r="J15">
-        <v>80.561000000000007</v>
+        <v>75.135999999999996</v>
       </c>
       <c r="K15">
-        <v>90.013999999999996</v>
+        <v>98.959000000000003</v>
       </c>
       <c r="L15">
-        <v>77.825000000000003</v>
+        <v>72.492000000000004</v>
       </c>
       <c r="M15">
-        <v>64.838999999999999</v>
+        <v>43.701999999999998</v>
       </c>
       <c r="N15">
-        <v>52.264000000000003</v>
+        <v>54.521000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C16">
         <v>0.26100000000000001</v>
       </c>
       <c r="D16">
-        <v>6.7560000000000002</v>
+        <v>6.484</v>
       </c>
       <c r="E16">
         <v>3.2559999999999998</v>
@@ -33102,115 +33143,115 @@
         <v>33.451000000000001</v>
       </c>
       <c r="G16">
-        <v>33.451000000000001</v>
+        <v>35.889000000000003</v>
       </c>
       <c r="H16">
-        <v>93.938000000000002</v>
+        <v>94.932000000000002</v>
       </c>
       <c r="I16">
-        <v>106.20099999999999</v>
+        <v>104.10599999999999</v>
       </c>
       <c r="J16">
-        <v>75.135999999999996</v>
+        <v>73.367999999999995</v>
       </c>
       <c r="K16">
-        <v>98.959000000000003</v>
+        <v>153.61699999999999</v>
       </c>
       <c r="L16">
-        <v>72.492000000000004</v>
+        <v>69.894999999999996</v>
       </c>
       <c r="M16">
-        <v>43.701999999999998</v>
+        <v>43.021999999999998</v>
       </c>
       <c r="N16">
-        <v>54.521000000000001</v>
+        <v>63.195</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17">
-        <v>0.26100000000000001</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>6.484</v>
+        <v>5.9569999999999999</v>
       </c>
       <c r="E17">
-        <v>3.2559999999999998</v>
+        <v>3.6509999999999998</v>
       </c>
       <c r="F17">
         <v>33.451000000000001</v>
       </c>
       <c r="G17">
-        <v>35.889000000000003</v>
+        <v>45.076999999999998</v>
       </c>
       <c r="H17">
-        <v>94.932000000000002</v>
+        <v>99.977999999999994</v>
       </c>
       <c r="I17">
-        <v>104.10599999999999</v>
+        <v>98.959000000000003</v>
       </c>
       <c r="J17">
-        <v>73.367999999999995</v>
+        <v>71.620999999999995</v>
       </c>
       <c r="K17">
-        <v>153.61699999999999</v>
+        <v>189.47800000000001</v>
       </c>
       <c r="L17">
-        <v>69.894999999999996</v>
+        <v>67.343000000000004</v>
       </c>
       <c r="M17">
-        <v>43.021999999999998</v>
+        <v>43.701999999999998</v>
       </c>
       <c r="N17">
-        <v>63.195</v>
+        <v>53.762999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="D18">
-        <v>5.9569999999999999</v>
+        <v>5.452</v>
       </c>
       <c r="E18">
-        <v>3.6509999999999998</v>
+        <v>4.9690000000000003</v>
       </c>
       <c r="F18">
         <v>33.451000000000001</v>
       </c>
       <c r="G18">
-        <v>45.076999999999998</v>
+        <v>55.283000000000001</v>
       </c>
       <c r="H18">
-        <v>99.977999999999994</v>
+        <v>105.151</v>
       </c>
       <c r="I18">
-        <v>98.959000000000003</v>
+        <v>95.930999999999997</v>
       </c>
       <c r="J18">
-        <v>71.620999999999995</v>
+        <v>69.894999999999996</v>
       </c>
       <c r="K18">
-        <v>189.47800000000001</v>
+        <v>186.696</v>
       </c>
       <c r="L18">
-        <v>67.343000000000004</v>
+        <v>62.38</v>
       </c>
       <c r="M18">
-        <v>43.701999999999998</v>
+        <v>44.387</v>
       </c>
       <c r="N18">
-        <v>53.762999999999998</v>
+        <v>57.603000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C19">
         <v>0.26100000000000001</v>
@@ -33225,74 +33266,74 @@
         <v>33.451000000000001</v>
       </c>
       <c r="G19">
-        <v>55.283000000000001</v>
+        <v>57.603000000000002</v>
       </c>
       <c r="H19">
-        <v>105.151</v>
+        <v>106.20099999999999</v>
       </c>
       <c r="I19">
-        <v>95.930999999999997</v>
+        <v>90.988</v>
       </c>
       <c r="J19">
-        <v>69.894999999999996</v>
+        <v>62.38</v>
       </c>
       <c r="K19">
-        <v>186.696</v>
+        <v>152.35900000000001</v>
       </c>
       <c r="L19">
-        <v>62.38</v>
+        <v>60.767000000000003</v>
       </c>
       <c r="M19">
-        <v>44.387</v>
+        <v>45.771999999999998</v>
       </c>
       <c r="N19">
-        <v>57.603000000000002</v>
+        <v>59.968000000000004</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C20">
-        <v>0.26100000000000001</v>
+        <v>22.523</v>
       </c>
       <c r="D20">
         <v>5.452</v>
       </c>
       <c r="E20">
-        <v>4.9690000000000003</v>
+        <v>5.452</v>
       </c>
       <c r="F20">
         <v>33.451000000000001</v>
       </c>
       <c r="G20">
-        <v>57.603000000000002</v>
+        <v>59.173999999999999</v>
       </c>
       <c r="H20">
         <v>106.20099999999999</v>
       </c>
       <c r="I20">
-        <v>90.988</v>
+        <v>86.171999999999997</v>
       </c>
       <c r="J20">
-        <v>62.38</v>
+        <v>76.924000000000007</v>
       </c>
       <c r="K20">
-        <v>152.35900000000001</v>
+        <v>112.607</v>
       </c>
       <c r="L20">
-        <v>60.767000000000003</v>
+        <v>56.823999999999998</v>
       </c>
       <c r="M20">
-        <v>45.771999999999998</v>
+        <v>53.762999999999998</v>
       </c>
       <c r="N20">
-        <v>59.968000000000004</v>
+        <v>67.343000000000004</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C21">
         <v>22.523</v>
@@ -33301,39 +33342,39 @@
         <v>5.452</v>
       </c>
       <c r="E21">
-        <v>5.452</v>
+        <v>6.218</v>
       </c>
       <c r="F21">
         <v>33.451000000000001</v>
       </c>
       <c r="G21">
-        <v>59.173999999999999</v>
+        <v>63.195</v>
       </c>
       <c r="H21">
         <v>106.20099999999999</v>
       </c>
       <c r="I21">
-        <v>86.171999999999997</v>
+        <v>78.731999999999999</v>
       </c>
       <c r="J21">
-        <v>76.924000000000007</v>
+        <v>80.561000000000007</v>
       </c>
       <c r="K21">
-        <v>112.607</v>
+        <v>106.20099999999999</v>
       </c>
       <c r="L21">
+        <v>58.386000000000003</v>
+      </c>
+      <c r="M21">
         <v>56.823999999999998</v>
       </c>
-      <c r="M21">
-        <v>53.762999999999998</v>
-      </c>
       <c r="N21">
-        <v>67.343000000000004</v>
+        <v>71.620999999999995</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C22">
         <v>22.523</v>
@@ -33342,124 +33383,124 @@
         <v>5.452</v>
       </c>
       <c r="E22">
-        <v>6.218</v>
+        <v>7.3150000000000004</v>
       </c>
       <c r="F22">
         <v>33.451000000000001</v>
       </c>
       <c r="G22">
-        <v>63.195</v>
+        <v>72.492000000000004</v>
       </c>
       <c r="H22">
-        <v>106.20099999999999</v>
+        <v>102.032</v>
       </c>
       <c r="I22">
-        <v>78.731999999999999</v>
+        <v>77.825000000000003</v>
       </c>
       <c r="J22">
-        <v>80.561000000000007</v>
+        <v>83.343999999999994</v>
       </c>
       <c r="K22">
-        <v>106.20099999999999</v>
+        <v>102.032</v>
       </c>
       <c r="L22">
-        <v>58.386000000000003</v>
+        <v>64.838999999999999</v>
       </c>
       <c r="M22">
-        <v>56.823999999999998</v>
+        <v>60.767000000000003</v>
       </c>
       <c r="N22">
-        <v>71.620999999999995</v>
+        <v>64.838999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C23">
         <v>22.523</v>
       </c>
       <c r="D23">
-        <v>5.452</v>
+        <v>4.9690000000000003</v>
       </c>
       <c r="E23">
-        <v>7.3150000000000004</v>
+        <v>7.6029999999999998</v>
       </c>
       <c r="F23">
         <v>33.451000000000001</v>
       </c>
       <c r="G23">
-        <v>72.492000000000004</v>
+        <v>75.135999999999996</v>
       </c>
       <c r="H23">
-        <v>102.032</v>
+        <v>97.944000000000003</v>
       </c>
       <c r="I23">
-        <v>77.825000000000003</v>
+        <v>76.027000000000001</v>
       </c>
       <c r="J23">
-        <v>83.343999999999994</v>
+        <v>79.644000000000005</v>
       </c>
       <c r="K23">
-        <v>102.032</v>
+        <v>93.938000000000002</v>
       </c>
       <c r="L23">
-        <v>64.838999999999999</v>
+        <v>65.668000000000006</v>
       </c>
       <c r="M23">
-        <v>60.767000000000003</v>
+        <v>64.013999999999996</v>
       </c>
       <c r="N23">
-        <v>64.838999999999999</v>
+        <v>59.968000000000004</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C24">
-        <v>22.523</v>
+        <v>21.545999999999999</v>
       </c>
       <c r="D24">
-        <v>4.9690000000000003</v>
+        <v>4.508</v>
       </c>
       <c r="E24">
-        <v>7.6029999999999998</v>
+        <v>8.5</v>
       </c>
       <c r="F24">
         <v>33.451000000000001</v>
       </c>
       <c r="G24">
+        <v>72.492000000000004</v>
+      </c>
+      <c r="H24">
+        <v>93.938000000000002</v>
+      </c>
+      <c r="I24">
         <v>75.135999999999996</v>
       </c>
-      <c r="H24">
-        <v>97.944000000000003</v>
-      </c>
-      <c r="I24">
-        <v>76.027000000000001</v>
-      </c>
       <c r="J24">
-        <v>79.644000000000005</v>
+        <v>78.731999999999999</v>
       </c>
       <c r="K24">
-        <v>93.938000000000002</v>
+        <v>92.95</v>
       </c>
       <c r="L24">
-        <v>65.668000000000006</v>
+        <v>62.38</v>
       </c>
       <c r="M24">
         <v>64.013999999999996</v>
       </c>
       <c r="N24">
-        <v>59.968000000000004</v>
+        <v>58.386000000000003</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C25">
-        <v>21.545999999999999</v>
+        <v>20.59</v>
       </c>
       <c r="D25">
         <v>4.508</v>
@@ -33471,33 +33512,33 @@
         <v>33.451000000000001</v>
       </c>
       <c r="G25">
-        <v>72.492000000000004</v>
+        <v>69.894999999999996</v>
       </c>
       <c r="H25">
-        <v>93.938000000000002</v>
+        <v>91.965999999999994</v>
       </c>
       <c r="I25">
-        <v>75.135999999999996</v>
+        <v>76.027000000000001</v>
       </c>
       <c r="J25">
-        <v>78.731999999999999</v>
+        <v>76.924000000000007</v>
       </c>
       <c r="K25">
-        <v>92.95</v>
+        <v>101.002</v>
       </c>
       <c r="L25">
-        <v>62.38</v>
+        <v>59.173999999999999</v>
       </c>
       <c r="M25">
-        <v>64.013999999999996</v>
+        <v>63.195</v>
       </c>
       <c r="N25">
-        <v>58.386000000000003</v>
+        <v>56.051000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C26">
         <v>20.59</v>
@@ -33506,148 +33547,148 @@
         <v>4.508</v>
       </c>
       <c r="E26">
-        <v>8.5</v>
+        <v>8.8089999999999993</v>
       </c>
       <c r="F26">
-        <v>33.451000000000001</v>
+        <v>32.854999999999997</v>
       </c>
       <c r="G26">
-        <v>69.894999999999996</v>
+        <v>68.188999999999993</v>
       </c>
       <c r="H26">
-        <v>91.965999999999994</v>
+        <v>97.944000000000003</v>
       </c>
       <c r="I26">
-        <v>76.027000000000001</v>
+        <v>80.561000000000007</v>
       </c>
       <c r="J26">
         <v>76.924000000000007</v>
       </c>
       <c r="K26">
-        <v>101.002</v>
+        <v>104.10599999999999</v>
       </c>
       <c r="L26">
-        <v>59.173999999999999</v>
+        <v>53.762999999999998</v>
       </c>
       <c r="M26">
-        <v>63.195</v>
+        <v>60.767000000000003</v>
       </c>
       <c r="N26">
-        <v>56.051000000000002</v>
+        <v>57.603000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C27">
-        <v>20.59</v>
+        <v>19.196000000000002</v>
       </c>
       <c r="D27">
-        <v>4.508</v>
+        <v>4.9690000000000003</v>
       </c>
       <c r="E27">
-        <v>8.8089999999999993</v>
+        <v>9.4450000000000003</v>
       </c>
       <c r="F27">
-        <v>32.854999999999997</v>
+        <v>32.264000000000003</v>
       </c>
       <c r="G27">
         <v>68.188999999999993</v>
       </c>
       <c r="H27">
-        <v>97.944000000000003</v>
+        <v>102.032</v>
       </c>
       <c r="I27">
-        <v>80.561000000000007</v>
+        <v>84.281000000000006</v>
       </c>
       <c r="J27">
-        <v>76.924000000000007</v>
+        <v>73.367999999999995</v>
       </c>
       <c r="K27">
-        <v>104.10599999999999</v>
+        <v>75.135999999999996</v>
       </c>
       <c r="L27">
-        <v>53.762999999999998</v>
+        <v>53.011000000000003</v>
       </c>
       <c r="M27">
-        <v>60.767000000000003</v>
+        <v>64.838999999999999</v>
       </c>
       <c r="N27">
-        <v>57.603000000000002</v>
+        <v>66.503</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C28">
         <v>19.196000000000002</v>
       </c>
       <c r="D28">
-        <v>4.9690000000000003</v>
+        <v>5.2080000000000002</v>
       </c>
       <c r="E28">
-        <v>9.4450000000000003</v>
+        <v>10.78</v>
       </c>
       <c r="F28">
-        <v>32.264000000000003</v>
+        <v>28.273</v>
       </c>
       <c r="G28">
         <v>68.188999999999993</v>
       </c>
       <c r="H28">
-        <v>102.032</v>
+        <v>104.10599999999999</v>
       </c>
       <c r="I28">
-        <v>84.281000000000006</v>
+        <v>86.171999999999997</v>
       </c>
       <c r="J28">
-        <v>73.367999999999995</v>
+        <v>95.930999999999997</v>
       </c>
       <c r="K28">
-        <v>75.135999999999996</v>
+        <v>153.61699999999999</v>
       </c>
       <c r="L28">
-        <v>53.011000000000003</v>
+        <v>50.784999999999997</v>
       </c>
       <c r="M28">
-        <v>64.838999999999999</v>
+        <v>66.503</v>
       </c>
       <c r="N28">
-        <v>66.503</v>
+        <v>67.343000000000004</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C29">
         <v>19.196000000000002</v>
       </c>
       <c r="D29">
-        <v>5.2080000000000002</v>
+        <v>4.9690000000000003</v>
       </c>
       <c r="E29">
-        <v>10.78</v>
+        <v>12.201000000000001</v>
       </c>
       <c r="F29">
-        <v>28.273</v>
+        <v>24.027999999999999</v>
       </c>
       <c r="G29">
-        <v>68.188999999999993</v>
+        <v>66.503</v>
       </c>
       <c r="H29">
         <v>104.10599999999999</v>
       </c>
       <c r="I29">
-        <v>86.171999999999997</v>
+        <v>91.965999999999994</v>
       </c>
       <c r="J29">
-        <v>95.930999999999997</v>
+        <v>146.14599999999999</v>
       </c>
       <c r="K29">
-        <v>153.61699999999999</v>
+        <v>157.41999999999999</v>
       </c>
       <c r="L29">
         <v>50.784999999999997</v>
@@ -33656,12 +33697,12 @@
         <v>66.503</v>
       </c>
       <c r="N29">
-        <v>67.343000000000004</v>
+        <v>59.968000000000004</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C30">
         <v>19.196000000000002</v>
@@ -33670,10 +33711,10 @@
         <v>4.9690000000000003</v>
       </c>
       <c r="E30">
-        <v>12.201000000000001</v>
+        <v>12.57</v>
       </c>
       <c r="F30">
-        <v>24.027999999999999</v>
+        <v>21.545999999999999</v>
       </c>
       <c r="G30">
         <v>66.503</v>
@@ -33682,68 +33723,68 @@
         <v>104.10599999999999</v>
       </c>
       <c r="I30">
-        <v>91.965999999999994</v>
+        <v>93.938000000000002</v>
       </c>
       <c r="J30">
-        <v>146.14599999999999</v>
+        <v>157.41999999999999</v>
       </c>
       <c r="K30">
-        <v>157.41999999999999</v>
+        <v>161.26900000000001</v>
       </c>
       <c r="L30">
-        <v>50.784999999999997</v>
+        <v>51.521999999999998</v>
       </c>
       <c r="M30">
         <v>66.503</v>
       </c>
       <c r="N30">
-        <v>59.968000000000004</v>
+        <v>51.521999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C31">
         <v>19.196000000000002</v>
       </c>
       <c r="D31">
-        <v>4.9690000000000003</v>
+        <v>4.508</v>
       </c>
       <c r="E31">
-        <v>12.57</v>
+        <v>12.944000000000001</v>
       </c>
       <c r="F31">
-        <v>21.545999999999999</v>
+        <v>19.655999999999999</v>
       </c>
       <c r="G31">
-        <v>66.503</v>
+        <v>69.039000000000001</v>
       </c>
       <c r="H31">
-        <v>104.10599999999999</v>
+        <v>105.151</v>
       </c>
       <c r="I31">
-        <v>93.938000000000002</v>
+        <v>92.95</v>
       </c>
       <c r="J31">
+        <v>165.16300000000001</v>
+      </c>
+      <c r="K31">
         <v>157.41999999999999</v>
       </c>
-      <c r="K31">
-        <v>161.26900000000001</v>
-      </c>
       <c r="L31">
-        <v>51.521999999999998</v>
+        <v>48.604999999999997</v>
       </c>
       <c r="M31">
         <v>66.503</v>
       </c>
       <c r="N31">
-        <v>51.521999999999998</v>
+        <v>47.177999999999997</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C32">
         <v>19.196000000000002</v>
@@ -33755,36 +33796,36 @@
         <v>12.944000000000001</v>
       </c>
       <c r="F32">
-        <v>19.655999999999999</v>
+        <v>18.294</v>
       </c>
       <c r="G32">
-        <v>69.039000000000001</v>
+        <v>76.027000000000001</v>
       </c>
       <c r="H32">
-        <v>105.151</v>
+        <v>58.386000000000003</v>
       </c>
       <c r="I32">
-        <v>92.95</v>
+        <v>91.965999999999994</v>
       </c>
       <c r="J32">
-        <v>165.16300000000001</v>
+        <v>157.41999999999999</v>
       </c>
       <c r="K32">
-        <v>157.41999999999999</v>
+        <v>138.858</v>
       </c>
       <c r="L32">
-        <v>48.604999999999997</v>
+        <v>47.889000000000003</v>
       </c>
       <c r="M32">
-        <v>66.503</v>
+        <v>63.195</v>
       </c>
       <c r="N32">
-        <v>47.177999999999997</v>
+        <v>43.021999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C33">
         <v>19.196000000000002</v>
@@ -33796,165 +33837,165 @@
         <v>12.944000000000001</v>
       </c>
       <c r="F33">
-        <v>18.294</v>
+        <v>15.301</v>
       </c>
       <c r="G33">
-        <v>76.027000000000001</v>
+        <v>80.561000000000007</v>
       </c>
       <c r="H33">
-        <v>58.386000000000003</v>
+        <v>131.751</v>
       </c>
       <c r="I33">
-        <v>91.965999999999994</v>
+        <v>88.082999999999998</v>
       </c>
       <c r="J33">
-        <v>157.41999999999999</v>
+        <v>146.14599999999999</v>
       </c>
       <c r="K33">
-        <v>138.858</v>
+        <v>121.434</v>
       </c>
       <c r="L33">
         <v>47.889000000000003</v>
       </c>
       <c r="M33">
-        <v>63.195</v>
+        <v>47.177999999999997</v>
       </c>
       <c r="N33">
-        <v>43.021999999999998</v>
+        <v>37.139000000000003</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C34">
-        <v>19.196000000000002</v>
+        <v>17.850000000000001</v>
       </c>
       <c r="D34">
-        <v>4.508</v>
+        <v>4.9690000000000003</v>
       </c>
       <c r="E34">
+        <v>13.709</v>
+      </c>
+      <c r="F34">
         <v>12.944000000000001</v>
-      </c>
-      <c r="F34">
-        <v>15.301</v>
       </c>
       <c r="G34">
         <v>80.561000000000007</v>
       </c>
       <c r="H34">
-        <v>131.751</v>
+        <v>135.28200000000001</v>
       </c>
       <c r="I34">
-        <v>88.082999999999998</v>
+        <v>86.171999999999997</v>
       </c>
       <c r="J34">
-        <v>146.14599999999999</v>
+        <v>135.28200000000001</v>
       </c>
       <c r="K34">
-        <v>121.434</v>
+        <v>107.256</v>
       </c>
       <c r="L34">
-        <v>47.889000000000003</v>
+        <v>48.604999999999997</v>
       </c>
       <c r="M34">
-        <v>47.177999999999997</v>
+        <v>43.701999999999998</v>
       </c>
       <c r="N34">
-        <v>37.139000000000003</v>
+        <v>30.521999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C35">
         <v>17.850000000000001</v>
       </c>
       <c r="D35">
-        <v>4.9690000000000003</v>
+        <v>6.484</v>
       </c>
       <c r="E35">
-        <v>13.709</v>
+        <v>14.099</v>
       </c>
       <c r="F35">
-        <v>12.944000000000001</v>
+        <v>11.127000000000001</v>
       </c>
       <c r="G35">
-        <v>80.561000000000007</v>
+        <v>84.281000000000006</v>
       </c>
       <c r="H35">
-        <v>135.28200000000001</v>
+        <v>134.1</v>
       </c>
       <c r="I35">
-        <v>86.171999999999997</v>
+        <v>84.281000000000006</v>
       </c>
       <c r="J35">
-        <v>135.28200000000001</v>
+        <v>101.002</v>
       </c>
       <c r="K35">
-        <v>107.256</v>
+        <v>106.20099999999999</v>
       </c>
       <c r="L35">
-        <v>48.604999999999997</v>
+        <v>47.889000000000003</v>
       </c>
       <c r="M35">
-        <v>43.701999999999998</v>
+        <v>42.347000000000001</v>
       </c>
       <c r="N35">
-        <v>30.521999999999998</v>
+        <v>29.387</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C36">
         <v>17.850000000000001</v>
       </c>
       <c r="D36">
-        <v>6.484</v>
+        <v>7.0330000000000004</v>
       </c>
       <c r="E36">
-        <v>14.099</v>
+        <v>14.895</v>
       </c>
       <c r="F36">
-        <v>11.127000000000001</v>
+        <v>10.102</v>
       </c>
       <c r="G36">
-        <v>84.281000000000006</v>
+        <v>86.171999999999997</v>
       </c>
       <c r="H36">
-        <v>134.1</v>
+        <v>173.08699999999999</v>
       </c>
       <c r="I36">
-        <v>84.281000000000006</v>
+        <v>83.343999999999994</v>
       </c>
       <c r="J36">
-        <v>101.002</v>
+        <v>91.965999999999994</v>
       </c>
       <c r="K36">
-        <v>106.20099999999999</v>
+        <v>99.977999999999994</v>
       </c>
       <c r="L36">
-        <v>47.889000000000003</v>
+        <v>46.472999999999999</v>
       </c>
       <c r="M36">
-        <v>42.347000000000001</v>
+        <v>45.076999999999998</v>
       </c>
       <c r="N36">
-        <v>29.387</v>
+        <v>30.521999999999998</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C37">
-        <v>17.850000000000001</v>
+        <v>12.57</v>
       </c>
       <c r="D37">
-        <v>7.0330000000000004</v>
+        <v>6.484</v>
       </c>
       <c r="E37">
         <v>14.895</v>
@@ -33963,115 +34004,115 @@
         <v>10.102</v>
       </c>
       <c r="G37">
+        <v>95.930999999999997</v>
+      </c>
+      <c r="H37">
+        <v>221.405</v>
+      </c>
+      <c r="I37">
         <v>86.171999999999997</v>
       </c>
-      <c r="H37">
-        <v>173.08699999999999</v>
-      </c>
-      <c r="I37">
-        <v>83.343999999999994</v>
-      </c>
       <c r="J37">
-        <v>91.965999999999994</v>
+        <v>78.731999999999999</v>
       </c>
       <c r="K37">
-        <v>99.977999999999994</v>
+        <v>94.932000000000002</v>
       </c>
       <c r="L37">
         <v>46.472999999999999</v>
       </c>
       <c r="M37">
-        <v>45.076999999999998</v>
+        <v>40.354999999999997</v>
       </c>
       <c r="N37">
-        <v>30.521999999999998</v>
+        <v>28.827999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C38">
-        <v>12.57</v>
-      </c>
-      <c r="D38">
-        <v>6.484</v>
+        <v>11.48</v>
+      </c>
+      <c r="D38" t="s">
+        <v>14</v>
       </c>
       <c r="E38">
-        <v>14.895</v>
+        <v>15.712999999999999</v>
       </c>
       <c r="F38">
         <v>10.102</v>
       </c>
       <c r="G38">
-        <v>95.930999999999997</v>
+        <v>99.977999999999994</v>
       </c>
       <c r="H38">
         <v>221.405</v>
       </c>
       <c r="I38">
-        <v>86.171999999999997</v>
+        <v>92.95</v>
       </c>
       <c r="J38">
-        <v>78.731999999999999</v>
+        <v>72.492000000000004</v>
       </c>
       <c r="K38">
-        <v>94.932000000000002</v>
+        <v>91.965999999999994</v>
       </c>
       <c r="L38">
-        <v>46.472999999999999</v>
+        <v>47.889000000000003</v>
       </c>
       <c r="M38">
-        <v>40.354999999999997</v>
+        <v>38.409999999999997</v>
       </c>
       <c r="N38">
-        <v>28.827999999999999</v>
+        <v>17.411999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C39">
-        <v>11.48</v>
+        <v>10.78</v>
       </c>
       <c r="D39" t="s">
         <v>14</v>
       </c>
       <c r="E39">
-        <v>15.712999999999999</v>
+        <v>16.13</v>
       </c>
       <c r="F39">
         <v>10.102</v>
       </c>
       <c r="G39">
-        <v>99.977999999999994</v>
+        <v>105.151</v>
       </c>
       <c r="H39">
-        <v>221.405</v>
+        <v>215.42</v>
       </c>
       <c r="I39">
-        <v>92.95</v>
+        <v>94.932000000000002</v>
       </c>
       <c r="J39">
-        <v>72.492000000000004</v>
+        <v>64.838999999999999</v>
       </c>
       <c r="K39">
-        <v>91.965999999999994</v>
+        <v>90.988</v>
       </c>
       <c r="L39">
-        <v>47.889000000000003</v>
+        <v>51.521999999999998</v>
       </c>
       <c r="M39">
-        <v>38.409999999999997</v>
+        <v>41.014000000000003</v>
       </c>
       <c r="N39">
-        <v>17.411999999999999</v>
+        <v>12.57</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C40">
         <v>10.78</v>
@@ -34082,145 +34123,145 @@
       <c r="E40">
         <v>16.13</v>
       </c>
-      <c r="F40">
-        <v>10.102</v>
+      <c r="F40" t="s">
+        <v>14</v>
       </c>
       <c r="G40">
-        <v>105.151</v>
-      </c>
-      <c r="H40">
-        <v>215.42</v>
+        <v>104.10599999999999</v>
+      </c>
+      <c r="H40" t="s">
+        <v>14</v>
       </c>
       <c r="I40">
-        <v>94.932000000000002</v>
+        <v>99.977999999999994</v>
       </c>
       <c r="J40">
-        <v>64.838999999999999</v>
-      </c>
-      <c r="K40">
-        <v>90.988</v>
+        <v>60.767000000000003</v>
+      </c>
+      <c r="K40" t="s">
+        <v>14</v>
       </c>
       <c r="L40">
-        <v>51.521999999999998</v>
-      </c>
-      <c r="M40">
-        <v>41.014000000000003</v>
+        <v>61.570999999999998</v>
+      </c>
+      <c r="M40" t="s">
+        <v>14</v>
       </c>
       <c r="N40">
-        <v>12.57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>31</v>
-      </c>
-      <c r="C41">
-        <v>10.78</v>
-      </c>
-      <c r="D41" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41">
-        <v>16.13</v>
-      </c>
-      <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41">
-        <v>104.10599999999999</v>
-      </c>
-      <c r="H41" t="s">
-        <v>14</v>
-      </c>
-      <c r="I41">
-        <v>99.977999999999994</v>
-      </c>
-      <c r="J41">
-        <v>60.767000000000003</v>
-      </c>
-      <c r="K41" t="s">
-        <v>14</v>
-      </c>
-      <c r="L41">
-        <v>61.570999999999998</v>
-      </c>
-      <c r="M41" t="s">
-        <v>14</v>
-      </c>
-      <c r="N41">
         <v>5.2080000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>43</v>
-      </c>
-      <c r="B46" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>45</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B49" t="s">
         <v>46</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C49" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C52" t="s">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C51" t="s">
         <v>2</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D51" t="s">
         <v>3</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E51" t="s">
         <v>4</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F51" t="s">
         <v>5</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G51" t="s">
         <v>6</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H51" t="s">
         <v>7</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I51" t="s">
         <v>8</v>
       </c>
-      <c r="J52" t="s">
+      <c r="J51" t="s">
         <v>9</v>
       </c>
-      <c r="K52" t="s">
+      <c r="K51" t="s">
         <v>10</v>
       </c>
-      <c r="L52" t="s">
+      <c r="L51" t="s">
         <v>11</v>
       </c>
-      <c r="M52" t="s">
+      <c r="M51" t="s">
         <v>12</v>
       </c>
-      <c r="N52" t="s">
+      <c r="N51" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>4.508</v>
+      </c>
+      <c r="D53">
+        <v>19.655999999999999</v>
+      </c>
+      <c r="E53">
+        <v>12.201000000000001</v>
+      </c>
+      <c r="F53">
+        <v>3.4510000000000001</v>
+      </c>
+      <c r="G53">
+        <v>56.823999999999998</v>
+      </c>
+      <c r="H53">
+        <v>235.16499999999999</v>
+      </c>
+      <c r="I53">
+        <v>63.195</v>
+      </c>
+      <c r="J53">
+        <v>188.08500000000001</v>
+      </c>
+      <c r="K53">
+        <v>128.267</v>
+      </c>
+      <c r="L53">
+        <v>140.06</v>
+      </c>
+      <c r="M53">
+        <v>6.218</v>
+      </c>
+      <c r="N53">
+        <v>0.89600000000000002</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C54">
         <v>4.508</v>
@@ -34232,28 +34273,28 @@
         <v>12.201000000000001</v>
       </c>
       <c r="F54">
-        <v>3.4510000000000001</v>
+        <v>4.9690000000000003</v>
       </c>
       <c r="G54">
-        <v>56.823999999999998</v>
+        <v>61.570999999999998</v>
       </c>
       <c r="H54">
-        <v>235.16499999999999</v>
+        <v>230.53299999999999</v>
       </c>
       <c r="I54">
-        <v>63.195</v>
+        <v>62.38</v>
       </c>
       <c r="J54">
-        <v>188.08500000000001</v>
+        <v>189.47800000000001</v>
       </c>
       <c r="K54">
-        <v>128.267</v>
+        <v>130.58500000000001</v>
       </c>
       <c r="L54">
-        <v>140.06</v>
+        <v>116.98</v>
       </c>
       <c r="M54">
-        <v>6.218</v>
+        <v>5.702</v>
       </c>
       <c r="N54">
         <v>0.89600000000000002</v>
@@ -34261,204 +34302,204 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C55">
-        <v>4.508</v>
+        <v>20.59</v>
       </c>
       <c r="D55">
-        <v>19.655999999999999</v>
+        <v>18.294</v>
       </c>
       <c r="E55">
-        <v>12.201000000000001</v>
+        <v>11.48</v>
       </c>
       <c r="F55">
-        <v>4.9690000000000003</v>
+        <v>5.9569999999999999</v>
       </c>
       <c r="G55">
-        <v>61.570999999999998</v>
+        <v>59.968000000000004</v>
       </c>
       <c r="H55">
-        <v>230.53299999999999</v>
+        <v>216.90899999999999</v>
       </c>
       <c r="I55">
-        <v>62.38</v>
+        <v>59.968000000000004</v>
       </c>
       <c r="J55">
-        <v>189.47800000000001</v>
+        <v>181.19200000000001</v>
       </c>
       <c r="K55">
-        <v>130.58500000000001</v>
+        <v>138.858</v>
       </c>
       <c r="L55">
-        <v>116.98</v>
+        <v>96.935000000000002</v>
       </c>
       <c r="M55">
-        <v>5.702</v>
+        <v>4.7359999999999998</v>
       </c>
       <c r="N55">
-        <v>0.89600000000000002</v>
+        <v>0.79700000000000004</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C56">
-        <v>20.59</v>
+        <v>19.655999999999999</v>
       </c>
       <c r="D56">
-        <v>18.294</v>
+        <v>17.850000000000001</v>
       </c>
       <c r="E56">
         <v>11.48</v>
       </c>
       <c r="F56">
-        <v>5.9569999999999999</v>
+        <v>10.78</v>
       </c>
       <c r="G56">
-        <v>59.968000000000004</v>
+        <v>55.283000000000001</v>
       </c>
       <c r="H56">
-        <v>216.90899999999999</v>
+        <v>193.68899999999999</v>
       </c>
       <c r="I56">
-        <v>59.968000000000004</v>
+        <v>58.386000000000003</v>
       </c>
       <c r="J56">
-        <v>181.19200000000001</v>
+        <v>173.08699999999999</v>
       </c>
       <c r="K56">
-        <v>138.858</v>
+        <v>143.697</v>
       </c>
       <c r="L56">
-        <v>96.935000000000002</v>
+        <v>86.171999999999997</v>
       </c>
       <c r="M56">
-        <v>4.7359999999999998</v>
+        <v>4.508</v>
       </c>
       <c r="N56">
-        <v>0.79700000000000004</v>
+        <v>0.70299999999999996</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C57">
         <v>19.655999999999999</v>
       </c>
       <c r="D57">
-        <v>17.850000000000001</v>
+        <v>17.411999999999999</v>
       </c>
       <c r="E57">
         <v>11.48</v>
       </c>
       <c r="F57">
-        <v>10.78</v>
+        <v>12.201000000000001</v>
       </c>
       <c r="G57">
-        <v>55.283000000000001</v>
+        <v>49.326999999999998</v>
       </c>
       <c r="H57">
-        <v>193.68899999999999</v>
+        <v>154.88</v>
       </c>
       <c r="I57">
-        <v>58.386000000000003</v>
+        <v>57.603000000000002</v>
       </c>
       <c r="J57">
-        <v>173.08699999999999</v>
+        <v>159.98099999999999</v>
       </c>
       <c r="K57">
-        <v>143.697</v>
+        <v>141.267</v>
       </c>
       <c r="L57">
-        <v>86.171999999999997</v>
+        <v>81.483999999999995</v>
       </c>
       <c r="M57">
-        <v>4.508</v>
+        <v>4.0679999999999996</v>
       </c>
       <c r="N57">
-        <v>0.70299999999999996</v>
+        <v>0.61499999999999999</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C58">
-        <v>19.655999999999999</v>
+        <v>18.742000000000001</v>
       </c>
       <c r="D58">
-        <v>17.411999999999999</v>
+        <v>15.301</v>
       </c>
       <c r="E58">
         <v>11.48</v>
       </c>
       <c r="F58">
-        <v>12.201000000000001</v>
+        <v>13.324</v>
       </c>
       <c r="G58">
-        <v>49.326999999999998</v>
+        <v>55.283000000000001</v>
       </c>
       <c r="H58">
-        <v>154.88</v>
+        <v>108.316</v>
       </c>
       <c r="I58">
-        <v>57.603000000000002</v>
+        <v>56.823999999999998</v>
       </c>
       <c r="J58">
-        <v>159.98099999999999</v>
+        <v>144.91900000000001</v>
       </c>
       <c r="K58">
-        <v>141.267</v>
+        <v>136.46899999999999</v>
       </c>
       <c r="L58">
-        <v>81.483999999999995</v>
+        <v>84.281000000000006</v>
       </c>
       <c r="M58">
-        <v>4.0679999999999996</v>
+        <v>3.2559999999999998</v>
       </c>
       <c r="N58">
-        <v>0.61499999999999999</v>
+        <v>0.53300000000000003</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C59">
         <v>18.742000000000001</v>
       </c>
       <c r="D59">
-        <v>15.301</v>
+        <v>11.48</v>
       </c>
       <c r="E59">
-        <v>11.48</v>
+        <v>10.78</v>
       </c>
       <c r="F59">
-        <v>13.324</v>
+        <v>11.837999999999999</v>
       </c>
       <c r="G59">
-        <v>55.283000000000001</v>
+        <v>66.503</v>
       </c>
       <c r="H59">
-        <v>108.316</v>
+        <v>103.06699999999999</v>
       </c>
       <c r="I59">
-        <v>56.823999999999998</v>
+        <v>64.838999999999999</v>
       </c>
       <c r="J59">
-        <v>144.91900000000001</v>
+        <v>136.46899999999999</v>
       </c>
       <c r="K59">
-        <v>136.46899999999999</v>
+        <v>141.267</v>
       </c>
       <c r="L59">
-        <v>84.281000000000006</v>
+        <v>86.171999999999997</v>
       </c>
       <c r="M59">
-        <v>3.2559999999999998</v>
+        <v>2.7040000000000002</v>
       </c>
       <c r="N59">
         <v>0.53300000000000003</v>
@@ -34466,95 +34507,95 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60">
-        <v>18.742000000000001</v>
+        <v>20.120999999999999</v>
       </c>
       <c r="D60">
-        <v>11.48</v>
+        <v>10.438000000000001</v>
       </c>
       <c r="E60">
+        <v>10.102</v>
+      </c>
+      <c r="F60">
         <v>10.78</v>
       </c>
-      <c r="F60">
-        <v>11.837999999999999</v>
-      </c>
       <c r="G60">
-        <v>66.503</v>
+        <v>72.492000000000004</v>
       </c>
       <c r="H60">
-        <v>103.06699999999999</v>
+        <v>98.959000000000003</v>
       </c>
       <c r="I60">
-        <v>64.838999999999999</v>
+        <v>73.367999999999995</v>
       </c>
       <c r="J60">
-        <v>136.46899999999999</v>
+        <v>127.11499999999999</v>
       </c>
       <c r="K60">
-        <v>141.267</v>
+        <v>153.61699999999999</v>
       </c>
       <c r="L60">
-        <v>86.171999999999997</v>
+        <v>82.411000000000001</v>
       </c>
       <c r="M60">
-        <v>2.7040000000000002</v>
+        <v>2.532</v>
       </c>
       <c r="N60">
-        <v>0.53300000000000003</v>
+        <v>0.89600000000000002</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61">
-        <v>20.120999999999999</v>
+        <v>20.59</v>
       </c>
       <c r="D61">
-        <v>10.438000000000001</v>
+        <v>9.1240000000000006</v>
       </c>
       <c r="E61">
         <v>10.102</v>
       </c>
       <c r="F61">
-        <v>10.78</v>
+        <v>10.102</v>
       </c>
       <c r="G61">
-        <v>72.492000000000004</v>
+        <v>73.367999999999995</v>
       </c>
       <c r="H61">
-        <v>98.959000000000003</v>
+        <v>93.938000000000002</v>
       </c>
       <c r="I61">
-        <v>73.367999999999995</v>
+        <v>87.125</v>
       </c>
       <c r="J61">
-        <v>127.11499999999999</v>
+        <v>123.691</v>
       </c>
       <c r="K61">
-        <v>153.61699999999999</v>
+        <v>148.61600000000001</v>
       </c>
       <c r="L61">
-        <v>82.411000000000001</v>
+        <v>78.731999999999999</v>
       </c>
       <c r="M61">
-        <v>2.532</v>
+        <v>2.3639999999999999</v>
       </c>
       <c r="N61">
-        <v>0.89600000000000002</v>
+        <v>0.61499999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C62">
-        <v>20.59</v>
+        <v>19.655999999999999</v>
       </c>
       <c r="D62">
-        <v>9.1240000000000006</v>
+        <v>8.8089999999999993</v>
       </c>
       <c r="E62">
         <v>10.102</v>
@@ -34566,60 +34607,60 @@
         <v>73.367999999999995</v>
       </c>
       <c r="H62">
-        <v>93.938000000000002</v>
+        <v>86.171999999999997</v>
       </c>
       <c r="I62">
-        <v>87.125</v>
+        <v>59.173999999999999</v>
       </c>
       <c r="J62">
-        <v>123.691</v>
+        <v>121.434</v>
       </c>
       <c r="K62">
-        <v>148.61600000000001</v>
+        <v>140.06</v>
       </c>
       <c r="L62">
-        <v>78.731999999999999</v>
+        <v>76.924000000000007</v>
       </c>
       <c r="M62">
-        <v>2.3639999999999999</v>
+        <v>2.2029999999999998</v>
       </c>
       <c r="N62">
-        <v>0.61499999999999999</v>
+        <v>0.53300000000000003</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C63">
-        <v>19.655999999999999</v>
+        <v>17.850000000000001</v>
       </c>
       <c r="D63">
         <v>8.8089999999999993</v>
       </c>
       <c r="E63">
-        <v>10.102</v>
+        <v>9.1240000000000006</v>
       </c>
       <c r="F63">
-        <v>10.102</v>
+        <v>8.8089999999999993</v>
       </c>
       <c r="G63">
-        <v>73.367999999999995</v>
+        <v>83.343999999999994</v>
       </c>
       <c r="H63">
-        <v>86.171999999999997</v>
+        <v>80.561000000000007</v>
       </c>
       <c r="I63">
-        <v>59.173999999999999</v>
+        <v>157.41999999999999</v>
       </c>
       <c r="J63">
-        <v>121.434</v>
+        <v>195.10300000000001</v>
       </c>
       <c r="K63">
-        <v>140.06</v>
+        <v>106.20099999999999</v>
       </c>
       <c r="L63">
-        <v>76.924000000000007</v>
+        <v>70.754999999999995</v>
       </c>
       <c r="M63">
         <v>2.2029999999999998</v>
@@ -34630,40 +34671,40 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C64">
-        <v>17.850000000000001</v>
+        <v>16.13</v>
       </c>
       <c r="D64">
+        <v>8.1959999999999997</v>
+      </c>
+      <c r="E64">
         <v>8.8089999999999993</v>
       </c>
-      <c r="E64">
-        <v>9.1240000000000006</v>
-      </c>
       <c r="F64">
-        <v>8.8089999999999993</v>
+        <v>11.48</v>
       </c>
       <c r="G64">
-        <v>83.343999999999994</v>
+        <v>82.411000000000001</v>
       </c>
       <c r="H64">
-        <v>80.561000000000007</v>
+        <v>78.731999999999999</v>
       </c>
       <c r="I64">
         <v>157.41999999999999</v>
       </c>
       <c r="J64">
-        <v>195.10300000000001</v>
+        <v>167.78399999999999</v>
       </c>
       <c r="K64">
-        <v>106.20099999999999</v>
+        <v>104.10599999999999</v>
       </c>
       <c r="L64">
-        <v>70.754999999999995</v>
+        <v>73.367999999999995</v>
       </c>
       <c r="M64">
-        <v>2.2029999999999998</v>
+        <v>2.0470000000000002</v>
       </c>
       <c r="N64">
         <v>0.53300000000000003</v>
@@ -34671,40 +34712,40 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C65">
         <v>16.13</v>
       </c>
       <c r="D65">
-        <v>8.1959999999999997</v>
+        <v>7.6029999999999998</v>
       </c>
       <c r="E65">
-        <v>8.8089999999999993</v>
+        <v>9.77</v>
       </c>
       <c r="F65">
-        <v>11.48</v>
+        <v>12.201000000000001</v>
       </c>
       <c r="G65">
-        <v>82.411000000000001</v>
+        <v>76.924000000000007</v>
       </c>
       <c r="H65">
-        <v>78.731999999999999</v>
+        <v>77.825000000000003</v>
       </c>
       <c r="I65">
-        <v>157.41999999999999</v>
+        <v>151.10599999999999</v>
       </c>
       <c r="J65">
-        <v>167.78399999999999</v>
+        <v>121.434</v>
       </c>
       <c r="K65">
-        <v>104.10599999999999</v>
+        <v>105.151</v>
       </c>
       <c r="L65">
-        <v>73.367999999999995</v>
+        <v>76.027000000000001</v>
       </c>
       <c r="M65">
-        <v>2.0470000000000002</v>
+        <v>2.883</v>
       </c>
       <c r="N65">
         <v>0.53300000000000003</v>
@@ -34712,78 +34753,78 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C66">
-        <v>16.13</v>
+        <v>15.301</v>
       </c>
       <c r="D66">
-        <v>7.6029999999999998</v>
+        <v>9.77</v>
       </c>
       <c r="E66">
         <v>9.77</v>
       </c>
       <c r="F66">
-        <v>12.201000000000001</v>
+        <v>19.196000000000002</v>
       </c>
       <c r="G66">
-        <v>76.924000000000007</v>
+        <v>73.367999999999995</v>
       </c>
       <c r="H66">
-        <v>77.825000000000003</v>
+        <v>81.483999999999995</v>
       </c>
       <c r="I66">
-        <v>151.10599999999999</v>
+        <v>147.37899999999999</v>
       </c>
       <c r="J66">
-        <v>121.434</v>
+        <v>131.751</v>
       </c>
       <c r="K66">
-        <v>105.151</v>
+        <v>107.256</v>
       </c>
       <c r="L66">
-        <v>76.027000000000001</v>
+        <v>78.731999999999999</v>
       </c>
       <c r="M66">
-        <v>2.883</v>
+        <v>2.532</v>
       </c>
       <c r="N66">
-        <v>0.53300000000000003</v>
+        <v>0.45600000000000002</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C67">
-        <v>15.301</v>
+        <v>14.494</v>
       </c>
       <c r="D67">
-        <v>9.77</v>
+        <v>11.127000000000001</v>
       </c>
       <c r="E67">
-        <v>9.77</v>
+        <v>10.102</v>
       </c>
       <c r="F67">
-        <v>19.196000000000002</v>
+        <v>18.742000000000001</v>
       </c>
       <c r="G67">
-        <v>73.367999999999995</v>
+        <v>74.248999999999995</v>
       </c>
       <c r="H67">
-        <v>81.483999999999995</v>
+        <v>55.283000000000001</v>
       </c>
       <c r="I67">
-        <v>147.37899999999999</v>
+        <v>142.47900000000001</v>
       </c>
       <c r="J67">
-        <v>131.751</v>
+        <v>138.858</v>
       </c>
       <c r="K67">
-        <v>107.256</v>
+        <v>108.316</v>
       </c>
       <c r="L67">
-        <v>78.731999999999999</v>
+        <v>83.343999999999994</v>
       </c>
       <c r="M67">
         <v>2.532</v>
@@ -34794,81 +34835,81 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C68">
-        <v>14.494</v>
+        <v>13.709</v>
       </c>
       <c r="D68">
-        <v>11.127000000000001</v>
+        <v>10.78</v>
       </c>
       <c r="E68">
-        <v>10.102</v>
+        <v>10.78</v>
       </c>
       <c r="F68">
-        <v>18.742000000000001</v>
+        <v>21.065999999999999</v>
       </c>
       <c r="G68">
-        <v>74.248999999999995</v>
+        <v>70.754999999999995</v>
       </c>
       <c r="H68">
-        <v>55.283000000000001</v>
+        <v>159.98099999999999</v>
       </c>
       <c r="I68">
-        <v>142.47900000000001</v>
+        <v>134.1</v>
       </c>
       <c r="J68">
-        <v>138.858</v>
+        <v>149.85900000000001</v>
       </c>
       <c r="K68">
-        <v>108.316</v>
+        <v>141.267</v>
       </c>
       <c r="L68">
-        <v>83.343999999999994</v>
+        <v>79.644000000000005</v>
       </c>
       <c r="M68">
-        <v>2.532</v>
+        <v>4.0679999999999996</v>
       </c>
       <c r="N68">
-        <v>0.45600000000000002</v>
+        <v>0.38500000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C69">
-        <v>13.709</v>
+        <v>13.324</v>
       </c>
       <c r="D69">
-        <v>10.78</v>
+        <v>14.099</v>
       </c>
       <c r="E69">
-        <v>10.78</v>
+        <v>11.48</v>
       </c>
       <c r="F69">
-        <v>21.065999999999999</v>
+        <v>22.032</v>
       </c>
       <c r="G69">
-        <v>70.754999999999995</v>
+        <v>69.894999999999996</v>
       </c>
       <c r="H69">
-        <v>159.98099999999999</v>
+        <v>140.06</v>
       </c>
       <c r="I69">
-        <v>134.1</v>
+        <v>130.58500000000001</v>
       </c>
       <c r="J69">
-        <v>149.85900000000001</v>
+        <v>158.69800000000001</v>
       </c>
       <c r="K69">
-        <v>141.267</v>
+        <v>148.61600000000001</v>
       </c>
       <c r="L69">
-        <v>79.644000000000005</v>
+        <v>83.343999999999994</v>
       </c>
       <c r="M69">
-        <v>4.0679999999999996</v>
+        <v>5.2080000000000002</v>
       </c>
       <c r="N69">
         <v>0.38500000000000001</v>
@@ -34876,122 +34917,122 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C70">
-        <v>13.324</v>
+        <v>12.57</v>
       </c>
       <c r="D70">
-        <v>14.099</v>
+        <v>19.196000000000002</v>
       </c>
       <c r="E70">
         <v>11.48</v>
       </c>
       <c r="F70">
-        <v>22.032</v>
+        <v>23.521000000000001</v>
       </c>
       <c r="G70">
-        <v>69.894999999999996</v>
+        <v>72.492000000000004</v>
       </c>
       <c r="H70">
-        <v>140.06</v>
+        <v>137.661</v>
       </c>
       <c r="I70">
-        <v>130.58500000000001</v>
+        <v>128.267</v>
       </c>
       <c r="J70">
-        <v>158.69800000000001</v>
+        <v>163.86</v>
       </c>
       <c r="K70">
-        <v>148.61600000000001</v>
+        <v>156.14699999999999</v>
       </c>
       <c r="L70">
-        <v>83.343999999999994</v>
+        <v>82.411000000000001</v>
       </c>
       <c r="M70">
         <v>5.2080000000000002</v>
       </c>
       <c r="N70">
-        <v>0.38500000000000001</v>
+        <v>0.26100000000000001</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C71">
-        <v>12.57</v>
+        <v>11.127000000000001</v>
       </c>
       <c r="D71">
-        <v>19.196000000000002</v>
+        <v>17.850000000000001</v>
       </c>
       <c r="E71">
-        <v>11.48</v>
+        <v>12.201000000000001</v>
       </c>
       <c r="F71">
         <v>23.521000000000001</v>
       </c>
       <c r="G71">
-        <v>72.492000000000004</v>
+        <v>73.367999999999995</v>
       </c>
       <c r="H71">
-        <v>137.661</v>
+        <v>154.88</v>
       </c>
       <c r="I71">
-        <v>128.267</v>
+        <v>71.620999999999995</v>
       </c>
       <c r="J71">
         <v>163.86</v>
       </c>
       <c r="K71">
-        <v>156.14699999999999</v>
+        <v>162.56200000000001</v>
       </c>
       <c r="L71">
-        <v>82.411000000000001</v>
+        <v>68.188999999999993</v>
       </c>
       <c r="M71">
-        <v>5.2080000000000002</v>
+        <v>4.2850000000000001</v>
       </c>
       <c r="N71">
-        <v>0.26100000000000001</v>
+        <v>0.20799999999999999</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C72">
-        <v>11.127000000000001</v>
+        <v>10.102</v>
       </c>
       <c r="D72">
-        <v>17.850000000000001</v>
+        <v>12.944000000000001</v>
       </c>
       <c r="E72">
-        <v>12.201000000000001</v>
+        <v>14.895</v>
       </c>
       <c r="F72">
-        <v>23.521000000000001</v>
+        <v>21.545999999999999</v>
       </c>
       <c r="G72">
-        <v>73.367999999999995</v>
+        <v>64.013999999999996</v>
       </c>
       <c r="H72">
-        <v>154.88</v>
+        <v>157.41999999999999</v>
       </c>
       <c r="I72">
-        <v>71.620999999999995</v>
+        <v>159.98099999999999</v>
       </c>
       <c r="J72">
-        <v>163.86</v>
+        <v>162.56200000000001</v>
       </c>
       <c r="K72">
-        <v>162.56200000000001</v>
+        <v>169.102</v>
       </c>
       <c r="L72">
-        <v>68.188999999999993</v>
+        <v>53.762999999999998</v>
       </c>
       <c r="M72">
-        <v>4.2850000000000001</v>
+        <v>3.2559999999999998</v>
       </c>
       <c r="N72">
         <v>0.20799999999999999</v>
@@ -34999,81 +35040,81 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C73">
-        <v>10.102</v>
+        <v>9.4450000000000003</v>
       </c>
       <c r="D73">
-        <v>12.944000000000001</v>
+        <v>12.57</v>
       </c>
       <c r="E73">
-        <v>14.895</v>
+        <v>15.712999999999999</v>
       </c>
       <c r="F73">
-        <v>21.545999999999999</v>
+        <v>23.521000000000001</v>
       </c>
       <c r="G73">
-        <v>64.013999999999996</v>
+        <v>66.503</v>
       </c>
       <c r="H73">
-        <v>157.41999999999999</v>
+        <v>140.06</v>
       </c>
       <c r="I73">
-        <v>159.98099999999999</v>
+        <v>192.28</v>
       </c>
       <c r="J73">
-        <v>162.56200000000001</v>
+        <v>170.42500000000001</v>
       </c>
       <c r="K73">
-        <v>169.102</v>
+        <v>175.76900000000001</v>
       </c>
       <c r="L73">
-        <v>53.762999999999998</v>
+        <v>42.347000000000001</v>
       </c>
       <c r="M73">
-        <v>3.2559999999999998</v>
+        <v>2.883</v>
       </c>
       <c r="N73">
-        <v>0.20799999999999999</v>
+        <v>0.26100000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C74">
-        <v>9.4450000000000003</v>
+        <v>8.1959999999999997</v>
       </c>
       <c r="D74">
-        <v>12.57</v>
+        <v>9.1240000000000006</v>
       </c>
       <c r="E74">
-        <v>15.712999999999999</v>
+        <v>14.494</v>
       </c>
       <c r="F74">
-        <v>23.521000000000001</v>
+        <v>26.109000000000002</v>
       </c>
       <c r="G74">
-        <v>66.503</v>
+        <v>78.731999999999999</v>
       </c>
       <c r="H74">
-        <v>140.06</v>
+        <v>60.767000000000003</v>
       </c>
       <c r="I74">
-        <v>192.28</v>
+        <v>195.10300000000001</v>
       </c>
       <c r="J74">
-        <v>170.42500000000001</v>
+        <v>178.47</v>
       </c>
       <c r="K74">
-        <v>175.76900000000001</v>
+        <v>183.934</v>
       </c>
       <c r="L74">
-        <v>42.347000000000001</v>
+        <v>32.854999999999997</v>
       </c>
       <c r="M74">
-        <v>2.883</v>
+        <v>2.3639999999999999</v>
       </c>
       <c r="N74">
         <v>0.26100000000000001</v>
@@ -35081,40 +35122,40 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C75">
-        <v>8.1959999999999997</v>
+        <v>7.6029999999999998</v>
       </c>
       <c r="D75">
-        <v>9.1240000000000006</v>
+        <v>8.8089999999999993</v>
       </c>
       <c r="E75">
-        <v>14.494</v>
+        <v>12.57</v>
       </c>
       <c r="F75">
-        <v>26.109000000000002</v>
+        <v>24.027999999999999</v>
       </c>
       <c r="G75">
-        <v>78.731999999999999</v>
+        <v>86.171999999999997</v>
       </c>
       <c r="H75">
-        <v>60.767000000000003</v>
+        <v>103.06699999999999</v>
       </c>
       <c r="I75">
-        <v>195.10300000000001</v>
+        <v>181.19200000000001</v>
       </c>
       <c r="J75">
-        <v>178.47</v>
+        <v>188.08500000000001</v>
       </c>
       <c r="K75">
-        <v>183.934</v>
+        <v>192.28</v>
       </c>
       <c r="L75">
-        <v>32.854999999999997</v>
+        <v>24.027999999999999</v>
       </c>
       <c r="M75">
-        <v>2.3639999999999999</v>
+        <v>2.2029999999999998</v>
       </c>
       <c r="N75">
         <v>0.26100000000000001</v>
@@ -35122,40 +35163,40 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C76">
-        <v>7.6029999999999998</v>
+        <v>26.641999999999999</v>
       </c>
       <c r="D76">
-        <v>8.8089999999999993</v>
+        <v>9.1240000000000006</v>
       </c>
       <c r="E76">
-        <v>12.57</v>
+        <v>11.837999999999999</v>
       </c>
       <c r="F76">
-        <v>24.027999999999999</v>
+        <v>22.523</v>
       </c>
       <c r="G76">
-        <v>86.171999999999997</v>
+        <v>103.06699999999999</v>
       </c>
       <c r="H76">
-        <v>103.06699999999999</v>
+        <v>96.935000000000002</v>
       </c>
       <c r="I76">
-        <v>181.19200000000001</v>
+        <v>167.78399999999999</v>
       </c>
       <c r="J76">
-        <v>188.08500000000001</v>
+        <v>193.68899999999999</v>
       </c>
       <c r="K76">
-        <v>192.28</v>
+        <v>200.80699999999999</v>
       </c>
       <c r="L76">
-        <v>24.027999999999999</v>
+        <v>20.59</v>
       </c>
       <c r="M76">
-        <v>2.2029999999999998</v>
+        <v>1.897</v>
       </c>
       <c r="N76">
         <v>0.26100000000000001</v>
@@ -35163,81 +35204,81 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C77">
         <v>26.641999999999999</v>
       </c>
       <c r="D77">
+        <v>10.438000000000001</v>
+      </c>
+      <c r="E77">
         <v>9.1240000000000006</v>
       </c>
-      <c r="E77">
-        <v>11.837999999999999</v>
-      </c>
       <c r="F77">
-        <v>22.523</v>
+        <v>20.59</v>
       </c>
       <c r="G77">
-        <v>103.06699999999999</v>
+        <v>108.316</v>
       </c>
       <c r="H77">
-        <v>96.935000000000002</v>
+        <v>90.013999999999996</v>
       </c>
       <c r="I77">
-        <v>167.78399999999999</v>
+        <v>157.41999999999999</v>
       </c>
       <c r="J77">
-        <v>193.68899999999999</v>
+        <v>178.47</v>
       </c>
       <c r="K77">
         <v>200.80699999999999</v>
       </c>
       <c r="L77">
-        <v>20.59</v>
+        <v>16.978999999999999</v>
       </c>
       <c r="M77">
-        <v>1.897</v>
+        <v>1.752</v>
       </c>
       <c r="N77">
-        <v>0.26100000000000001</v>
+        <v>0.161</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C78">
-        <v>26.641999999999999</v>
+        <v>25.581</v>
       </c>
       <c r="D78">
-        <v>10.438000000000001</v>
+        <v>10.78</v>
       </c>
       <c r="E78">
-        <v>9.1240000000000006</v>
+        <v>5.2080000000000002</v>
       </c>
       <c r="F78">
-        <v>20.59</v>
+        <v>21.545999999999999</v>
       </c>
       <c r="G78">
         <v>108.316</v>
       </c>
       <c r="H78">
-        <v>90.013999999999996</v>
+        <v>81.483999999999995</v>
       </c>
       <c r="I78">
-        <v>157.41999999999999</v>
+        <v>153.61699999999999</v>
       </c>
       <c r="J78">
-        <v>178.47</v>
+        <v>159.98099999999999</v>
       </c>
       <c r="K78">
-        <v>200.80699999999999</v>
+        <v>202.24600000000001</v>
       </c>
       <c r="L78">
-        <v>16.978999999999999</v>
+        <v>13.324</v>
       </c>
       <c r="M78">
-        <v>1.752</v>
+        <v>1.613</v>
       </c>
       <c r="N78">
         <v>0.161</v>
@@ -35245,78 +35286,78 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C79">
-        <v>25.581</v>
+        <v>23.521000000000001</v>
       </c>
       <c r="D79">
         <v>10.78</v>
       </c>
       <c r="E79">
-        <v>5.2080000000000002</v>
+        <v>3.2559999999999998</v>
       </c>
       <c r="F79">
-        <v>21.545999999999999</v>
+        <v>24.54</v>
       </c>
       <c r="G79">
-        <v>108.316</v>
+        <v>118.086</v>
       </c>
       <c r="H79">
-        <v>81.483999999999995</v>
+        <v>76.027000000000001</v>
       </c>
       <c r="I79">
-        <v>153.61699999999999</v>
+        <v>165.16300000000001</v>
       </c>
       <c r="J79">
         <v>159.98099999999999</v>
       </c>
       <c r="K79">
-        <v>202.24600000000001</v>
+        <v>196.52099999999999</v>
       </c>
       <c r="L79">
-        <v>13.324</v>
+        <v>11.48</v>
       </c>
       <c r="M79">
         <v>1.613</v>
       </c>
       <c r="N79">
-        <v>0.161</v>
+        <v>8.4000000000000005E-2</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C80">
-        <v>23.521000000000001</v>
+        <v>22.032</v>
       </c>
       <c r="D80">
+        <v>11.127000000000001</v>
+      </c>
+      <c r="E80">
+        <v>2.3639999999999999</v>
+      </c>
+      <c r="F80">
+        <v>27.181000000000001</v>
+      </c>
+      <c r="G80">
+        <v>116.98</v>
+      </c>
+      <c r="H80">
+        <v>71.620999999999995</v>
+      </c>
+      <c r="I80">
+        <v>179.82900000000001</v>
+      </c>
+      <c r="J80">
+        <v>149.85900000000001</v>
+      </c>
+      <c r="K80">
+        <v>189.47800000000001</v>
+      </c>
+      <c r="L80">
         <v>10.78</v>
-      </c>
-      <c r="E80">
-        <v>3.2559999999999998</v>
-      </c>
-      <c r="F80">
-        <v>24.54</v>
-      </c>
-      <c r="G80">
-        <v>118.086</v>
-      </c>
-      <c r="H80">
-        <v>76.027000000000001</v>
-      </c>
-      <c r="I80">
-        <v>165.16300000000001</v>
-      </c>
-      <c r="J80">
-        <v>159.98099999999999</v>
-      </c>
-      <c r="K80">
-        <v>196.52099999999999</v>
-      </c>
-      <c r="L80">
-        <v>11.48</v>
       </c>
       <c r="M80">
         <v>1.613</v>
@@ -35327,40 +35368,40 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C81">
-        <v>22.032</v>
+        <v>20.59</v>
       </c>
       <c r="D81">
-        <v>11.127000000000001</v>
+        <v>11.48</v>
       </c>
       <c r="E81">
-        <v>2.3639999999999999</v>
+        <v>1.752</v>
       </c>
       <c r="F81">
-        <v>27.181000000000001</v>
+        <v>34.658999999999999</v>
       </c>
       <c r="G81">
-        <v>116.98</v>
+        <v>186.696</v>
       </c>
       <c r="H81">
-        <v>71.620999999999995</v>
+        <v>68.188999999999993</v>
       </c>
       <c r="I81">
-        <v>179.82900000000001</v>
+        <v>190.87700000000001</v>
       </c>
       <c r="J81">
-        <v>149.85900000000001</v>
+        <v>142.47900000000001</v>
       </c>
       <c r="K81">
-        <v>189.47800000000001</v>
+        <v>181.19200000000001</v>
       </c>
       <c r="L81">
-        <v>10.78</v>
+        <v>9.4450000000000003</v>
       </c>
       <c r="M81">
-        <v>1.613</v>
+        <v>1.2290000000000001</v>
       </c>
       <c r="N81">
         <v>8.4000000000000005E-2</v>
@@ -35368,40 +35409,40 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C82">
-        <v>20.59</v>
-      </c>
-      <c r="D82">
-        <v>11.48</v>
+        <v>19.655999999999999</v>
+      </c>
+      <c r="D82" t="s">
+        <v>14</v>
       </c>
       <c r="E82">
-        <v>1.752</v>
+        <v>1.351</v>
       </c>
       <c r="F82">
-        <v>34.658999999999999</v>
+        <v>43.701999999999998</v>
       </c>
       <c r="G82">
-        <v>186.696</v>
+        <v>195.10300000000001</v>
       </c>
       <c r="H82">
-        <v>68.188999999999993</v>
+        <v>65.668000000000006</v>
       </c>
       <c r="I82">
-        <v>190.87700000000001</v>
+        <v>203.69</v>
       </c>
       <c r="J82">
-        <v>142.47900000000001</v>
+        <v>136.46899999999999</v>
       </c>
       <c r="K82">
-        <v>181.19200000000001</v>
+        <v>169.102</v>
       </c>
       <c r="L82">
-        <v>9.4450000000000003</v>
+        <v>7.6029999999999998</v>
       </c>
       <c r="M82">
-        <v>1.2290000000000001</v>
+        <v>1.0009999999999999</v>
       </c>
       <c r="N82">
         <v>8.4000000000000005E-2</v>
@@ -35409,7 +35450,7 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C83">
         <v>19.655999999999999</v>
@@ -35418,147 +35459,147 @@
         <v>14</v>
       </c>
       <c r="E83">
-        <v>1.351</v>
-      </c>
-      <c r="F83">
-        <v>43.701999999999998</v>
+        <v>1.897</v>
+      </c>
+      <c r="F83" t="s">
+        <v>14</v>
       </c>
       <c r="G83">
-        <v>195.10300000000001</v>
-      </c>
-      <c r="H83">
-        <v>65.668000000000006</v>
+        <v>218.40299999999999</v>
+      </c>
+      <c r="H83" t="s">
+        <v>14</v>
       </c>
       <c r="I83">
-        <v>203.69</v>
+        <v>192.28</v>
       </c>
       <c r="J83">
-        <v>136.46899999999999</v>
-      </c>
-      <c r="K83">
-        <v>169.102</v>
+        <v>131.751</v>
+      </c>
+      <c r="K83" t="s">
+        <v>14</v>
       </c>
       <c r="L83">
-        <v>7.6029999999999998</v>
-      </c>
-      <c r="M83">
-        <v>1.0009999999999999</v>
+        <v>6.7560000000000002</v>
+      </c>
+      <c r="M83" t="s">
+        <v>14</v>
       </c>
       <c r="N83">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>31</v>
-      </c>
-      <c r="C84">
-        <v>19.655999999999999</v>
-      </c>
-      <c r="D84" t="s">
-        <v>14</v>
-      </c>
-      <c r="E84">
-        <v>1.897</v>
-      </c>
-      <c r="F84" t="s">
-        <v>14</v>
-      </c>
-      <c r="G84">
-        <v>218.40299999999999</v>
-      </c>
-      <c r="H84" t="s">
-        <v>14</v>
-      </c>
-      <c r="I84">
-        <v>192.28</v>
-      </c>
-      <c r="J84">
-        <v>131.751</v>
-      </c>
-      <c r="K84" t="s">
-        <v>14</v>
-      </c>
-      <c r="L84">
-        <v>6.7560000000000002</v>
-      </c>
-      <c r="M84" t="s">
-        <v>14</v>
-      </c>
-      <c r="N84">
-        <v>8.4000000000000005E-2</v>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>43</v>
+      </c>
+      <c r="B88" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>43</v>
-      </c>
-      <c r="B89" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
         <v>45</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B92" t="s">
         <v>46</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C92" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C95" t="s">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C94" t="s">
         <v>2</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D94" t="s">
         <v>3</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E94" t="s">
         <v>4</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F94" t="s">
         <v>5</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G94" t="s">
         <v>6</v>
       </c>
-      <c r="H95" t="s">
+      <c r="H94" t="s">
         <v>7</v>
       </c>
-      <c r="I95" t="s">
+      <c r="I94" t="s">
         <v>8</v>
       </c>
-      <c r="J95" t="s">
+      <c r="J94" t="s">
         <v>9</v>
       </c>
-      <c r="K95" t="s">
+      <c r="K94" t="s">
         <v>10</v>
       </c>
-      <c r="L95" t="s">
+      <c r="L94" t="s">
         <v>11</v>
       </c>
-      <c r="M95" t="s">
+      <c r="M94" t="s">
         <v>12</v>
       </c>
-      <c r="N95" t="s">
+      <c r="N94" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="D96">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="E96">
+        <v>2.3639999999999999</v>
+      </c>
+      <c r="F96">
+        <v>4.0679999999999996</v>
+      </c>
+      <c r="G96" t="s">
+        <v>16</v>
+      </c>
+      <c r="H96">
+        <v>4.7359999999999998</v>
+      </c>
+      <c r="I96">
+        <v>63.195</v>
+      </c>
+      <c r="J96">
+        <v>107.256</v>
+      </c>
+      <c r="K96">
+        <v>76.027000000000001</v>
+      </c>
+      <c r="L96">
+        <v>208.05099999999999</v>
+      </c>
+      <c r="M96">
+        <v>181.19200000000001</v>
+      </c>
+      <c r="N96">
+        <v>174.42500000000001</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C97">
         <v>8.4000000000000005E-2</v>
@@ -35567,7 +35608,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="E97">
-        <v>2.3639999999999999</v>
+        <v>2.532</v>
       </c>
       <c r="F97">
         <v>4.0679999999999996</v>
@@ -35576,30 +35617,30 @@
         <v>16</v>
       </c>
       <c r="H97">
-        <v>4.7359999999999998</v>
+        <v>5.2080000000000002</v>
       </c>
       <c r="I97">
-        <v>63.195</v>
+        <v>73.367999999999995</v>
       </c>
       <c r="J97">
         <v>107.256</v>
       </c>
       <c r="K97">
-        <v>76.027000000000001</v>
+        <v>91.965999999999994</v>
       </c>
       <c r="L97">
-        <v>208.05099999999999</v>
+        <v>210.98400000000001</v>
       </c>
       <c r="M97">
-        <v>181.19200000000001</v>
+        <v>162.56200000000001</v>
       </c>
       <c r="N97">
-        <v>174.42500000000001</v>
+        <v>178.47</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C98">
         <v>8.4000000000000005E-2</v>
@@ -35611,118 +35652,118 @@
         <v>2.532</v>
       </c>
       <c r="F98">
-        <v>4.0679999999999996</v>
+        <v>3.4510000000000001</v>
       </c>
       <c r="G98" t="s">
         <v>16</v>
       </c>
       <c r="H98">
-        <v>5.2080000000000002</v>
+        <v>4.9690000000000003</v>
       </c>
       <c r="I98">
-        <v>73.367999999999995</v>
+        <v>82.411000000000001</v>
       </c>
       <c r="J98">
-        <v>107.256</v>
+        <v>27.724</v>
       </c>
       <c r="K98">
         <v>91.965999999999994</v>
       </c>
       <c r="L98">
-        <v>210.98400000000001</v>
+        <v>197.94499999999999</v>
       </c>
       <c r="M98">
-        <v>162.56200000000001</v>
+        <v>149.85900000000001</v>
       </c>
       <c r="N98">
-        <v>178.47</v>
+        <v>157.41999999999999</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C99">
-        <v>8.4000000000000005E-2</v>
+        <v>0.161</v>
       </c>
       <c r="D99">
-        <v>8.4000000000000005E-2</v>
+        <v>0.105</v>
       </c>
       <c r="E99">
         <v>2.532</v>
       </c>
       <c r="F99">
-        <v>3.4510000000000001</v>
+        <v>3.6509999999999998</v>
       </c>
       <c r="G99" t="s">
         <v>16</v>
       </c>
       <c r="H99">
-        <v>4.9690000000000003</v>
+        <v>3.2559999999999998</v>
       </c>
       <c r="I99">
-        <v>82.411000000000001</v>
+        <v>88.082999999999998</v>
       </c>
       <c r="J99">
-        <v>27.724</v>
+        <v>23.521000000000001</v>
       </c>
       <c r="K99">
         <v>91.965999999999994</v>
       </c>
       <c r="L99">
-        <v>197.94499999999999</v>
+        <v>186.696</v>
       </c>
       <c r="M99">
+        <v>142.47900000000001</v>
+      </c>
+      <c r="N99">
         <v>149.85900000000001</v>
-      </c>
-      <c r="N99">
-        <v>157.41999999999999</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C100">
         <v>0.161</v>
       </c>
       <c r="D100">
-        <v>0.105</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="E100">
-        <v>2.532</v>
+        <v>2.3639999999999999</v>
       </c>
       <c r="F100">
-        <v>3.6509999999999998</v>
+        <v>4.0679999999999996</v>
       </c>
       <c r="G100" t="s">
         <v>16</v>
       </c>
       <c r="H100">
-        <v>3.2559999999999998</v>
+        <v>2.883</v>
       </c>
       <c r="I100">
         <v>88.082999999999998</v>
       </c>
       <c r="J100">
-        <v>23.521000000000001</v>
+        <v>20.59</v>
       </c>
       <c r="K100">
-        <v>91.965999999999994</v>
+        <v>88.082999999999998</v>
       </c>
       <c r="L100">
-        <v>186.696</v>
+        <v>182.56100000000001</v>
       </c>
       <c r="M100">
         <v>142.47900000000001</v>
       </c>
       <c r="N100">
-        <v>149.85900000000001</v>
+        <v>141.267</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C101">
         <v>0.161</v>
@@ -35731,39 +35772,39 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="E101">
-        <v>2.3639999999999999</v>
+        <v>2.2029999999999998</v>
       </c>
       <c r="F101">
-        <v>4.0679999999999996</v>
+        <v>2.883</v>
       </c>
       <c r="G101" t="s">
         <v>16</v>
       </c>
       <c r="H101">
-        <v>2.883</v>
+        <v>4.7359999999999998</v>
       </c>
       <c r="I101">
-        <v>88.082999999999998</v>
+        <v>94.932000000000002</v>
       </c>
       <c r="J101">
-        <v>20.59</v>
+        <v>17.850000000000001</v>
       </c>
       <c r="K101">
-        <v>88.082999999999998</v>
+        <v>93.938000000000002</v>
       </c>
       <c r="L101">
-        <v>182.56100000000001</v>
+        <v>174.42500000000001</v>
       </c>
       <c r="M101">
         <v>142.47900000000001</v>
       </c>
       <c r="N101">
-        <v>141.267</v>
+        <v>138.858</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C102">
         <v>0.161</v>
@@ -35775,36 +35816,36 @@
         <v>2.2029999999999998</v>
       </c>
       <c r="F102">
-        <v>2.883</v>
+        <v>2.3639999999999999</v>
       </c>
       <c r="G102" t="s">
         <v>16</v>
       </c>
       <c r="H102">
-        <v>4.7359999999999998</v>
+        <v>5.452</v>
       </c>
       <c r="I102">
-        <v>94.932000000000002</v>
+        <v>101.002</v>
       </c>
       <c r="J102">
-        <v>17.850000000000001</v>
+        <v>18.742000000000001</v>
       </c>
       <c r="K102">
-        <v>93.938000000000002</v>
+        <v>96.935000000000002</v>
       </c>
       <c r="L102">
-        <v>174.42500000000001</v>
+        <v>178.47</v>
       </c>
       <c r="M102">
         <v>142.47900000000001</v>
       </c>
       <c r="N102">
-        <v>138.858</v>
+        <v>132.923</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103">
         <v>0.161</v>
@@ -35813,39 +35854,39 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="E103">
+        <v>1.351</v>
+      </c>
+      <c r="F103">
         <v>2.2029999999999998</v>
       </c>
-      <c r="F103">
-        <v>2.3639999999999999</v>
-      </c>
       <c r="G103" t="s">
         <v>16</v>
       </c>
       <c r="H103">
-        <v>5.452</v>
+        <v>6.218</v>
       </c>
       <c r="I103">
-        <v>101.002</v>
+        <v>104.10599999999999</v>
       </c>
       <c r="J103">
-        <v>18.742000000000001</v>
+        <v>21.545999999999999</v>
       </c>
       <c r="K103">
-        <v>96.935000000000002</v>
+        <v>99.977999999999994</v>
       </c>
       <c r="L103">
-        <v>178.47</v>
+        <v>202.24600000000001</v>
       </c>
       <c r="M103">
-        <v>142.47900000000001</v>
+        <v>140.06</v>
       </c>
       <c r="N103">
-        <v>132.923</v>
+        <v>128.267</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104">
         <v>0.161</v>
@@ -35857,36 +35898,36 @@
         <v>1.351</v>
       </c>
       <c r="F104">
-        <v>2.2029999999999998</v>
+        <v>1.897</v>
       </c>
       <c r="G104" t="s">
         <v>16</v>
       </c>
       <c r="H104">
-        <v>6.218</v>
+        <v>7.3150000000000004</v>
       </c>
       <c r="I104">
-        <v>104.10599999999999</v>
+        <v>96.935000000000002</v>
       </c>
       <c r="J104">
-        <v>21.545999999999999</v>
+        <v>25.058</v>
       </c>
       <c r="K104">
-        <v>99.977999999999994</v>
+        <v>90.988</v>
       </c>
       <c r="L104">
-        <v>202.24600000000001</v>
+        <v>215.42</v>
       </c>
       <c r="M104">
         <v>140.06</v>
       </c>
       <c r="N104">
-        <v>128.267</v>
+        <v>123.691</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C105">
         <v>0.161</v>
@@ -35895,39 +35936,39 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="E105">
-        <v>1.351</v>
+        <v>1.897</v>
       </c>
       <c r="F105">
-        <v>1.897</v>
+        <v>1.613</v>
       </c>
       <c r="G105" t="s">
         <v>16</v>
       </c>
       <c r="H105">
-        <v>7.3150000000000004</v>
+        <v>11.48</v>
       </c>
       <c r="I105">
-        <v>96.935000000000002</v>
+        <v>90.013999999999996</v>
       </c>
       <c r="J105">
-        <v>25.058</v>
+        <v>27.181000000000001</v>
       </c>
       <c r="K105">
-        <v>90.988</v>
+        <v>90.013999999999996</v>
       </c>
       <c r="L105">
-        <v>215.42</v>
+        <v>221.405</v>
       </c>
       <c r="M105">
-        <v>140.06</v>
+        <v>137.661</v>
       </c>
       <c r="N105">
-        <v>123.691</v>
+        <v>97.944000000000003</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C106">
         <v>0.161</v>
@@ -35936,80 +35977,80 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="E106">
-        <v>1.897</v>
+        <v>1.752</v>
       </c>
       <c r="F106">
-        <v>1.613</v>
+        <v>1.752</v>
       </c>
       <c r="G106" t="s">
         <v>16</v>
       </c>
       <c r="H106">
-        <v>11.48</v>
+        <v>15.301</v>
       </c>
       <c r="I106">
-        <v>90.013999999999996</v>
+        <v>85.224000000000004</v>
       </c>
       <c r="J106">
-        <v>27.181000000000001</v>
+        <v>170.42500000000001</v>
       </c>
       <c r="K106">
-        <v>90.013999999999996</v>
+        <v>86.171999999999997</v>
       </c>
       <c r="L106">
-        <v>221.405</v>
+        <v>224.428</v>
       </c>
       <c r="M106">
-        <v>137.661</v>
+        <v>134.1</v>
       </c>
       <c r="N106">
-        <v>97.944000000000003</v>
+        <v>102.032</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C107">
         <v>0.161</v>
       </c>
       <c r="D107">
-        <v>8.4000000000000005E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="E107">
-        <v>1.752</v>
+        <v>1.351</v>
       </c>
       <c r="F107">
-        <v>1.752</v>
+        <v>2.2029999999999998</v>
       </c>
       <c r="G107" t="s">
         <v>16</v>
       </c>
       <c r="H107">
-        <v>15.301</v>
+        <v>19.655999999999999</v>
       </c>
       <c r="I107">
-        <v>85.224000000000004</v>
+        <v>91.965999999999994</v>
       </c>
       <c r="J107">
-        <v>170.42500000000001</v>
+        <v>192.28</v>
       </c>
       <c r="K107">
-        <v>86.171999999999997</v>
+        <v>73.367999999999995</v>
       </c>
       <c r="L107">
-        <v>224.428</v>
+        <v>215.42</v>
       </c>
       <c r="M107">
-        <v>134.1</v>
+        <v>138.858</v>
       </c>
       <c r="N107">
-        <v>102.032</v>
+        <v>93.938000000000002</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C108">
         <v>0.161</v>
@@ -36018,39 +36059,39 @@
         <v>5.5E-2</v>
       </c>
       <c r="E108">
-        <v>1.351</v>
+        <v>1.0009999999999999</v>
       </c>
       <c r="F108">
-        <v>2.2029999999999998</v>
+        <v>2.532</v>
       </c>
       <c r="G108" t="s">
         <v>16</v>
       </c>
       <c r="H108">
-        <v>19.655999999999999</v>
+        <v>24.027999999999999</v>
       </c>
       <c r="I108">
-        <v>91.965999999999994</v>
+        <v>95.930999999999997</v>
       </c>
       <c r="J108">
-        <v>192.28</v>
+        <v>202.24600000000001</v>
       </c>
       <c r="K108">
-        <v>73.367999999999995</v>
+        <v>61.570999999999998</v>
       </c>
       <c r="L108">
-        <v>215.42</v>
+        <v>212.45699999999999</v>
       </c>
       <c r="M108">
-        <v>138.858</v>
+        <v>165.16300000000001</v>
       </c>
       <c r="N108">
-        <v>93.938000000000002</v>
+        <v>87.125</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C109">
         <v>0.161</v>
@@ -36059,39 +36100,39 @@
         <v>5.5E-2</v>
       </c>
       <c r="E109">
-        <v>1.0009999999999999</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="F109">
-        <v>2.532</v>
+        <v>3.2559999999999998</v>
       </c>
       <c r="G109" t="s">
         <v>16</v>
       </c>
       <c r="H109">
-        <v>24.027999999999999</v>
+        <v>22.523</v>
       </c>
       <c r="I109">
-        <v>95.930999999999997</v>
+        <v>99.977999999999994</v>
       </c>
       <c r="J109">
-        <v>202.24600000000001</v>
+        <v>206.59200000000001</v>
       </c>
       <c r="K109">
-        <v>61.570999999999998</v>
+        <v>56.823999999999998</v>
       </c>
       <c r="L109">
-        <v>212.45699999999999</v>
+        <v>228.999</v>
       </c>
       <c r="M109">
-        <v>165.16300000000001</v>
+        <v>166.471</v>
       </c>
       <c r="N109">
-        <v>87.125</v>
+        <v>84.281000000000006</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C110">
         <v>0.161</v>
@@ -36100,39 +36141,39 @@
         <v>5.5E-2</v>
       </c>
       <c r="E110">
-        <v>0.26100000000000001</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="F110">
-        <v>3.2559999999999998</v>
+        <v>3.4510000000000001</v>
       </c>
       <c r="G110" t="s">
         <v>16</v>
       </c>
       <c r="H110">
-        <v>22.523</v>
+        <v>22.032</v>
       </c>
       <c r="I110">
-        <v>99.977999999999994</v>
+        <v>104.10599999999999</v>
       </c>
       <c r="J110">
-        <v>206.59200000000001</v>
+        <v>205.13900000000001</v>
       </c>
       <c r="K110">
-        <v>56.823999999999998</v>
+        <v>43.701999999999998</v>
       </c>
       <c r="L110">
-        <v>228.999</v>
+        <v>236.71799999999999</v>
       </c>
       <c r="M110">
-        <v>166.471</v>
+        <v>165.16300000000001</v>
       </c>
       <c r="N110">
-        <v>84.281000000000006</v>
+        <v>82.411000000000001</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C111">
         <v>0.161</v>
@@ -36141,31 +36182,31 @@
         <v>5.5E-2</v>
       </c>
       <c r="E111">
-        <v>0.38500000000000001</v>
+        <v>1.1120000000000001</v>
       </c>
       <c r="F111">
-        <v>3.4510000000000001</v>
+        <v>3.6509999999999998</v>
       </c>
       <c r="G111" t="s">
         <v>16</v>
       </c>
       <c r="H111">
-        <v>22.032</v>
+        <v>25.581</v>
       </c>
       <c r="I111">
-        <v>104.10599999999999</v>
+        <v>107.256</v>
       </c>
       <c r="J111">
-        <v>205.13900000000001</v>
+        <v>185.31299999999999</v>
       </c>
       <c r="K111">
-        <v>43.701999999999998</v>
+        <v>39.052999999999997</v>
       </c>
       <c r="L111">
-        <v>236.71799999999999</v>
+        <v>166.471</v>
       </c>
       <c r="M111">
-        <v>165.16300000000001</v>
+        <v>178.47</v>
       </c>
       <c r="N111">
         <v>82.411000000000001</v>
@@ -36173,7 +36214,7 @@
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C112">
         <v>0.161</v>
@@ -36182,39 +36223,39 @@
         <v>5.5E-2</v>
       </c>
       <c r="E112">
-        <v>1.1120000000000001</v>
+        <v>1.752</v>
       </c>
       <c r="F112">
-        <v>3.6509999999999998</v>
+        <v>4.0679999999999996</v>
       </c>
       <c r="G112" t="s">
         <v>16</v>
       </c>
       <c r="H112">
-        <v>25.581</v>
+        <v>26.109000000000002</v>
       </c>
       <c r="I112">
-        <v>107.256</v>
+        <v>144.91900000000001</v>
       </c>
       <c r="J112">
-        <v>185.31299999999999</v>
+        <v>177.11699999999999</v>
       </c>
       <c r="K112">
-        <v>39.052999999999997</v>
+        <v>34.052999999999997</v>
       </c>
       <c r="L112">
-        <v>166.471</v>
+        <v>287.35899999999998</v>
       </c>
       <c r="M112">
-        <v>178.47</v>
+        <v>183.934</v>
       </c>
       <c r="N112">
-        <v>82.411000000000001</v>
+        <v>79.644000000000005</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C113">
         <v>0.161</v>
@@ -36232,30 +36273,30 @@
         <v>16</v>
       </c>
       <c r="H113">
-        <v>26.109000000000002</v>
+        <v>22.523</v>
       </c>
       <c r="I113">
-        <v>144.91900000000001</v>
+        <v>146.14599999999999</v>
       </c>
       <c r="J113">
-        <v>177.11699999999999</v>
+        <v>166.471</v>
       </c>
       <c r="K113">
-        <v>34.052999999999997</v>
+        <v>25.581</v>
       </c>
       <c r="L113">
-        <v>287.35899999999998</v>
+        <v>292.51400000000001</v>
       </c>
       <c r="M113">
-        <v>183.934</v>
+        <v>165.16300000000001</v>
       </c>
       <c r="N113">
-        <v>79.644000000000005</v>
+        <v>78.731999999999999</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C114">
         <v>0.161</v>
@@ -36264,31 +36305,31 @@
         <v>5.5E-2</v>
       </c>
       <c r="E114">
-        <v>1.752</v>
+        <v>1.613</v>
       </c>
       <c r="F114">
-        <v>4.0679999999999996</v>
+        <v>4.508</v>
       </c>
       <c r="G114" t="s">
         <v>16</v>
       </c>
       <c r="H114">
-        <v>22.523</v>
+        <v>25.058</v>
       </c>
       <c r="I114">
-        <v>146.14599999999999</v>
+        <v>131.751</v>
       </c>
       <c r="J114">
-        <v>166.471</v>
+        <v>158.69800000000001</v>
       </c>
       <c r="K114">
-        <v>25.581</v>
+        <v>23.02</v>
       </c>
       <c r="L114">
-        <v>292.51400000000001</v>
+        <v>285.65100000000001</v>
       </c>
       <c r="M114">
-        <v>165.16300000000001</v>
+        <v>153.61699999999999</v>
       </c>
       <c r="N114">
         <v>78.731999999999999</v>
@@ -36296,7 +36337,7 @@
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C115">
         <v>0.161</v>
@@ -36305,39 +36346,39 @@
         <v>5.5E-2</v>
       </c>
       <c r="E115">
-        <v>1.613</v>
+        <v>1.351</v>
       </c>
       <c r="F115">
-        <v>4.508</v>
+        <v>6.218</v>
       </c>
       <c r="G115" t="s">
         <v>16</v>
       </c>
       <c r="H115">
-        <v>25.058</v>
+        <v>26.109000000000002</v>
       </c>
       <c r="I115">
-        <v>131.751</v>
+        <v>118.086</v>
       </c>
       <c r="J115">
-        <v>158.69800000000001</v>
+        <v>152.35900000000001</v>
       </c>
       <c r="K115">
-        <v>23.02</v>
+        <v>23.521000000000001</v>
       </c>
       <c r="L115">
-        <v>285.65100000000001</v>
+        <v>270.5</v>
       </c>
       <c r="M115">
-        <v>153.61699999999999</v>
+        <v>152.35900000000001</v>
       </c>
       <c r="N115">
-        <v>78.731999999999999</v>
+        <v>76.924000000000007</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C116">
         <v>0.161</v>
@@ -36349,77 +36390,77 @@
         <v>1.351</v>
       </c>
       <c r="F116">
-        <v>6.218</v>
+        <v>7.8970000000000002</v>
       </c>
       <c r="G116" t="s">
         <v>16</v>
       </c>
       <c r="H116">
-        <v>26.109000000000002</v>
+        <v>23.521000000000001</v>
       </c>
       <c r="I116">
-        <v>118.086</v>
+        <v>106.20099999999999</v>
       </c>
       <c r="J116">
-        <v>152.35900000000001</v>
+        <v>144.91900000000001</v>
       </c>
       <c r="K116">
-        <v>23.521000000000001</v>
+        <v>51.521999999999998</v>
       </c>
       <c r="L116">
-        <v>270.5</v>
+        <v>252.53100000000001</v>
       </c>
       <c r="M116">
-        <v>152.35900000000001</v>
+        <v>156.14699999999999</v>
       </c>
       <c r="N116">
-        <v>76.924000000000007</v>
+        <v>76.027000000000001</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C117">
-        <v>0.161</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="D117">
-        <v>5.5E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E117">
-        <v>1.351</v>
+        <v>1.897</v>
       </c>
       <c r="F117">
-        <v>7.8970000000000002</v>
+        <v>8.1959999999999997</v>
       </c>
       <c r="G117" t="s">
         <v>16</v>
       </c>
       <c r="H117">
-        <v>23.521000000000001</v>
+        <v>21.545999999999999</v>
       </c>
       <c r="I117">
-        <v>106.20099999999999</v>
+        <v>86.171999999999997</v>
       </c>
       <c r="J117">
-        <v>144.91900000000001</v>
+        <v>137.661</v>
       </c>
       <c r="K117">
-        <v>51.521999999999998</v>
+        <v>70.754999999999995</v>
       </c>
       <c r="L117">
-        <v>252.53100000000001</v>
+        <v>230.53299999999999</v>
       </c>
       <c r="M117">
-        <v>156.14699999999999</v>
+        <v>152.35900000000001</v>
       </c>
       <c r="N117">
-        <v>76.027000000000001</v>
+        <v>76.924000000000007</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C118">
         <v>8.4000000000000005E-2</v>
@@ -36428,39 +36469,39 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="E118">
-        <v>1.897</v>
+        <v>2.7040000000000002</v>
       </c>
       <c r="F118">
-        <v>8.1959999999999997</v>
+        <v>4.9690000000000003</v>
       </c>
       <c r="G118" t="s">
         <v>16</v>
       </c>
       <c r="H118">
-        <v>21.545999999999999</v>
+        <v>20.120999999999999</v>
       </c>
       <c r="I118">
-        <v>86.171999999999997</v>
+        <v>82.411000000000001</v>
       </c>
       <c r="J118">
-        <v>137.661</v>
+        <v>123.691</v>
       </c>
       <c r="K118">
-        <v>70.754999999999995</v>
+        <v>82.411000000000001</v>
       </c>
       <c r="L118">
-        <v>230.53299999999999</v>
+        <v>222.91399999999999</v>
       </c>
       <c r="M118">
-        <v>152.35900000000001</v>
+        <v>151.10599999999999</v>
       </c>
       <c r="N118">
-        <v>76.924000000000007</v>
+        <v>80.561000000000007</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C119">
         <v>8.4000000000000005E-2</v>
@@ -36469,39 +36510,39 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="E119">
-        <v>2.7040000000000002</v>
+        <v>3.4510000000000001</v>
       </c>
       <c r="F119">
-        <v>4.9690000000000003</v>
+        <v>3.0659999999999998</v>
       </c>
       <c r="G119" t="s">
         <v>16</v>
       </c>
       <c r="H119">
-        <v>20.120999999999999</v>
+        <v>21.065999999999999</v>
       </c>
       <c r="I119">
-        <v>82.411000000000001</v>
+        <v>90.013999999999996</v>
       </c>
       <c r="J119">
-        <v>123.691</v>
+        <v>91.965999999999994</v>
       </c>
       <c r="K119">
-        <v>82.411000000000001</v>
+        <v>91.965999999999994</v>
       </c>
       <c r="L119">
-        <v>222.91399999999999</v>
+        <v>227.471</v>
       </c>
       <c r="M119">
-        <v>151.10599999999999</v>
+        <v>154.88</v>
       </c>
       <c r="N119">
-        <v>80.561000000000007</v>
+        <v>76.924000000000007</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C120">
         <v>8.4000000000000005E-2</v>
@@ -36510,31 +36551,31 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="E120">
-        <v>3.4510000000000001</v>
+        <v>4.0679999999999996</v>
       </c>
       <c r="F120">
-        <v>3.0659999999999998</v>
+        <v>4.0679999999999996</v>
       </c>
       <c r="G120" t="s">
         <v>16</v>
       </c>
       <c r="H120">
-        <v>21.065999999999999</v>
+        <v>21.545999999999999</v>
       </c>
       <c r="I120">
-        <v>90.013999999999996</v>
+        <v>94.932000000000002</v>
       </c>
       <c r="J120">
-        <v>91.965999999999994</v>
+        <v>104.10599999999999</v>
       </c>
       <c r="K120">
-        <v>91.965999999999994</v>
+        <v>99.977999999999994</v>
       </c>
       <c r="L120">
-        <v>227.471</v>
+        <v>236.71799999999999</v>
       </c>
       <c r="M120">
-        <v>154.88</v>
+        <v>149.85900000000001</v>
       </c>
       <c r="N120">
         <v>76.924000000000007</v>
@@ -36542,19 +36583,19 @@
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C121">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="D121">
-        <v>1.4999999999999999E-2</v>
+        <v>0.161</v>
       </c>
       <c r="E121">
         <v>4.0679999999999996</v>
       </c>
       <c r="F121">
-        <v>4.0679999999999996</v>
+        <v>5.452</v>
       </c>
       <c r="G121" t="s">
         <v>16</v>
@@ -36563,36 +36604,36 @@
         <v>21.545999999999999</v>
       </c>
       <c r="I121">
-        <v>94.932000000000002</v>
+        <v>93.938000000000002</v>
       </c>
       <c r="J121">
-        <v>104.10599999999999</v>
+        <v>95.930999999999997</v>
       </c>
       <c r="K121">
-        <v>99.977999999999994</v>
+        <v>106.20099999999999</v>
       </c>
       <c r="L121">
-        <v>236.71799999999999</v>
+        <v>233.61600000000001</v>
       </c>
       <c r="M121">
-        <v>149.85900000000001</v>
+        <v>146.14599999999999</v>
       </c>
       <c r="N121">
-        <v>76.924000000000007</v>
+        <v>73.367999999999995</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C122">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="D122">
-        <v>0.161</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="E122">
-        <v>4.0679999999999996</v>
+        <v>3.6509999999999998</v>
       </c>
       <c r="F122">
         <v>5.452</v>
@@ -36601,112 +36642,112 @@
         <v>16</v>
       </c>
       <c r="H122">
-        <v>21.545999999999999</v>
+        <v>21.065999999999999</v>
       </c>
       <c r="I122">
-        <v>93.938000000000002</v>
+        <v>89.046000000000006</v>
       </c>
       <c r="J122">
-        <v>95.930999999999997</v>
+        <v>92.95</v>
       </c>
       <c r="K122">
-        <v>106.20099999999999</v>
+        <v>157.41999999999999</v>
       </c>
       <c r="L122">
-        <v>233.61600000000001</v>
+        <v>222.91399999999999</v>
       </c>
       <c r="M122">
-        <v>146.14599999999999</v>
+        <v>152.35900000000001</v>
       </c>
       <c r="N122">
-        <v>73.367999999999995</v>
+        <v>69.894999999999996</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C123">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="D123">
-        <v>0.38500000000000001</v>
+        <v>1.752</v>
       </c>
       <c r="E123">
-        <v>3.6509999999999998</v>
+        <v>2.883</v>
       </c>
       <c r="F123">
-        <v>5.452</v>
+        <v>4.7359999999999998</v>
       </c>
       <c r="G123" t="s">
         <v>16</v>
       </c>
       <c r="H123">
-        <v>21.065999999999999</v>
+        <v>21.545999999999999</v>
       </c>
       <c r="I123">
-        <v>89.046000000000006</v>
+        <v>86.171999999999997</v>
       </c>
       <c r="J123">
-        <v>92.95</v>
+        <v>90.013999999999996</v>
       </c>
       <c r="K123">
-        <v>157.41999999999999</v>
+        <v>178.47</v>
       </c>
       <c r="L123">
-        <v>222.91399999999999</v>
+        <v>212.45699999999999</v>
       </c>
       <c r="M123">
-        <v>152.35900000000001</v>
+        <v>156.14699999999999</v>
       </c>
       <c r="N123">
-        <v>69.894999999999996</v>
+        <v>66.503</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C124">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="D124">
-        <v>1.752</v>
+      <c r="D124" t="s">
+        <v>14</v>
       </c>
       <c r="E124">
-        <v>2.883</v>
+        <v>3.2559999999999998</v>
       </c>
       <c r="F124">
-        <v>4.7359999999999998</v>
+        <v>4.0679999999999996</v>
       </c>
       <c r="G124" t="s">
         <v>16</v>
       </c>
       <c r="H124">
-        <v>21.545999999999999</v>
+        <v>37.139000000000003</v>
       </c>
       <c r="I124">
-        <v>86.171999999999997</v>
+        <v>90.013999999999996</v>
       </c>
       <c r="J124">
-        <v>90.013999999999996</v>
+        <v>88.082999999999998</v>
       </c>
       <c r="K124">
-        <v>178.47</v>
+        <v>196.52099999999999</v>
       </c>
       <c r="L124">
-        <v>212.45699999999999</v>
+        <v>206.59200000000001</v>
       </c>
       <c r="M124">
-        <v>156.14699999999999</v>
+        <v>161.26900000000001</v>
       </c>
       <c r="N124">
-        <v>66.503</v>
+        <v>59.968000000000004</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C125">
         <v>8.4000000000000005E-2</v>
@@ -36717,37 +36758,37 @@
       <c r="E125">
         <v>3.2559999999999998</v>
       </c>
-      <c r="F125">
-        <v>4.0679999999999996</v>
-      </c>
-      <c r="G125" t="s">
-        <v>16</v>
+      <c r="F125" t="s">
+        <v>16</v>
+      </c>
+      <c r="G125">
+        <v>3.8570000000000002</v>
       </c>
       <c r="H125">
-        <v>37.139000000000003</v>
+        <v>56.823999999999998</v>
       </c>
       <c r="I125">
-        <v>90.013999999999996</v>
+        <v>102.032</v>
       </c>
       <c r="J125">
         <v>88.082999999999998</v>
       </c>
       <c r="K125">
+        <v>202.24600000000001</v>
+      </c>
+      <c r="L125">
         <v>196.52099999999999</v>
       </c>
-      <c r="L125">
-        <v>206.59200000000001</v>
-      </c>
       <c r="M125">
-        <v>161.26900000000001</v>
+        <v>169.102</v>
       </c>
       <c r="N125">
-        <v>59.968000000000004</v>
+        <v>48.604999999999997</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C126">
         <v>8.4000000000000005E-2</v>
@@ -36759,150 +36800,150 @@
         <v>3.2559999999999998</v>
       </c>
       <c r="F126" t="s">
-        <v>16</v>
-      </c>
-      <c r="G126">
-        <v>3.8570000000000002</v>
-      </c>
-      <c r="H126">
-        <v>56.823999999999998</v>
+        <v>14</v>
+      </c>
+      <c r="G126" t="s">
+        <v>16</v>
+      </c>
+      <c r="H126" t="s">
+        <v>14</v>
       </c>
       <c r="I126">
-        <v>102.032</v>
+        <v>106.20099999999999</v>
       </c>
       <c r="J126">
-        <v>88.082999999999998</v>
-      </c>
-      <c r="K126">
-        <v>202.24600000000001</v>
+        <v>85.224000000000004</v>
+      </c>
+      <c r="K126" t="s">
+        <v>14</v>
       </c>
       <c r="L126">
-        <v>196.52099999999999</v>
-      </c>
-      <c r="M126">
-        <v>169.102</v>
+        <v>193.68899999999999</v>
+      </c>
+      <c r="M126" t="s">
+        <v>14</v>
       </c>
       <c r="N126">
-        <v>48.604999999999997</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A127">
-        <v>31</v>
-      </c>
-      <c r="C127">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="D127" t="s">
-        <v>14</v>
-      </c>
-      <c r="E127">
-        <v>3.2559999999999998</v>
-      </c>
-      <c r="F127" t="s">
-        <v>14</v>
-      </c>
-      <c r="G127" t="s">
-        <v>16</v>
-      </c>
-      <c r="H127" t="s">
-        <v>14</v>
-      </c>
-      <c r="I127">
-        <v>106.20099999999999</v>
-      </c>
-      <c r="J127">
-        <v>85.224000000000004</v>
-      </c>
-      <c r="K127" t="s">
-        <v>14</v>
-      </c>
-      <c r="L127">
-        <v>193.68899999999999</v>
-      </c>
-      <c r="M127" t="s">
-        <v>14</v>
-      </c>
-      <c r="N127">
         <v>43.021999999999998</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>43</v>
+      </c>
+      <c r="B131" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>43</v>
-      </c>
-      <c r="B132" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
         <v>45</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B135" t="s">
         <v>46</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C135" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C138" t="s">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C137" t="s">
         <v>2</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D137" t="s">
         <v>3</v>
       </c>
-      <c r="E138" t="s">
+      <c r="E137" t="s">
         <v>4</v>
       </c>
-      <c r="F138" t="s">
+      <c r="F137" t="s">
         <v>5</v>
       </c>
-      <c r="G138" t="s">
+      <c r="G137" t="s">
         <v>6</v>
       </c>
-      <c r="H138" t="s">
+      <c r="H137" t="s">
         <v>7</v>
       </c>
-      <c r="I138" t="s">
+      <c r="I137" t="s">
         <v>8</v>
       </c>
-      <c r="J138" t="s">
+      <c r="J137" t="s">
         <v>9</v>
       </c>
-      <c r="K138" t="s">
+      <c r="K137" t="s">
         <v>10</v>
       </c>
-      <c r="L138" t="s">
+      <c r="L137" t="s">
         <v>11</v>
       </c>
-      <c r="M138" t="s">
+      <c r="M137" t="s">
         <v>12</v>
       </c>
-      <c r="N138" t="s">
+      <c r="N137" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>1</v>
+      </c>
+      <c r="C139">
+        <v>27.724</v>
+      </c>
+      <c r="D139">
+        <v>2.532</v>
+      </c>
+      <c r="E139">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="F139">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="G139">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="H139" t="s">
+        <v>16</v>
+      </c>
+      <c r="I139" t="s">
+        <v>16</v>
+      </c>
+      <c r="J139">
+        <v>215.42</v>
+      </c>
+      <c r="K139">
+        <v>199.374</v>
+      </c>
+      <c r="L139">
+        <v>6.218</v>
+      </c>
+      <c r="M139">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="N139">
+        <v>0.26100000000000001</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C140">
-        <v>27.724</v>
+        <v>19.196000000000002</v>
       </c>
       <c r="D140">
-        <v>2.532</v>
+        <v>2.3639999999999999</v>
       </c>
       <c r="E140">
         <v>0.70299999999999996</v>
@@ -36911,7 +36952,7 @@
         <v>0.26100000000000001</v>
       </c>
       <c r="G140">
-        <v>0.61499999999999999</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="H140" t="s">
         <v>16</v>
@@ -36920,13 +36961,13 @@
         <v>16</v>
       </c>
       <c r="J140">
-        <v>215.42</v>
+        <v>219.90199999999999</v>
       </c>
       <c r="K140">
         <v>199.374</v>
       </c>
       <c r="L140">
-        <v>6.218</v>
+        <v>5.702</v>
       </c>
       <c r="M140">
         <v>0.89600000000000002</v>
@@ -36937,22 +36978,22 @@
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C141">
-        <v>19.196000000000002</v>
+        <v>15.301</v>
       </c>
       <c r="D141">
-        <v>2.3639999999999999</v>
+        <v>2.2029999999999998</v>
       </c>
       <c r="E141">
-        <v>0.70299999999999996</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="F141">
-        <v>0.26100000000000001</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="G141">
-        <v>0.45600000000000002</v>
+        <v>0.32</v>
       </c>
       <c r="H141" t="s">
         <v>16</v>
@@ -36961,16 +37002,16 @@
         <v>16</v>
       </c>
       <c r="J141">
-        <v>219.90199999999999</v>
+        <v>224.428</v>
       </c>
       <c r="K141">
-        <v>199.374</v>
+        <v>193.68899999999999</v>
       </c>
       <c r="L141">
-        <v>5.702</v>
+        <v>5.2080000000000002</v>
       </c>
       <c r="M141">
-        <v>0.89600000000000002</v>
+        <v>1.1120000000000001</v>
       </c>
       <c r="N141">
         <v>0.26100000000000001</v>
@@ -36978,48 +37019,48 @@
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C142">
-        <v>15.301</v>
+        <v>12.944000000000001</v>
       </c>
       <c r="D142">
         <v>2.2029999999999998</v>
       </c>
       <c r="E142">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="F142">
+        <v>0.161</v>
+      </c>
+      <c r="G142">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="H142" t="s">
+        <v>16</v>
+      </c>
+      <c r="I142" t="s">
+        <v>16</v>
+      </c>
+      <c r="J142">
+        <v>227.471</v>
+      </c>
+      <c r="K142">
+        <v>182.56100000000001</v>
+      </c>
+      <c r="L142">
+        <v>4.508</v>
+      </c>
+      <c r="M142">
+        <v>1.613</v>
+      </c>
+      <c r="N142">
         <v>0.61499999999999999</v>
-      </c>
-      <c r="F142">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="G142">
-        <v>0.32</v>
-      </c>
-      <c r="H142" t="s">
-        <v>16</v>
-      </c>
-      <c r="I142" t="s">
-        <v>16</v>
-      </c>
-      <c r="J142">
-        <v>224.428</v>
-      </c>
-      <c r="K142">
-        <v>193.68899999999999</v>
-      </c>
-      <c r="L142">
-        <v>5.2080000000000002</v>
-      </c>
-      <c r="M142">
-        <v>1.1120000000000001</v>
-      </c>
-      <c r="N142">
-        <v>0.26100000000000001</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C143">
         <v>12.944000000000001</v>
@@ -37028,13 +37069,13 @@
         <v>2.2029999999999998</v>
       </c>
       <c r="E143">
-        <v>0.45600000000000002</v>
+        <v>0.32</v>
       </c>
       <c r="F143">
         <v>0.161</v>
       </c>
       <c r="G143">
-        <v>0.38500000000000001</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="H143" t="s">
         <v>16</v>
@@ -37043,16 +37084,16 @@
         <v>16</v>
       </c>
       <c r="J143">
-        <v>227.471</v>
+        <v>228.999</v>
       </c>
       <c r="K143">
-        <v>182.56100000000001</v>
+        <v>181.19200000000001</v>
       </c>
       <c r="L143">
-        <v>4.508</v>
+        <v>4.0679999999999996</v>
       </c>
       <c r="M143">
-        <v>1.613</v>
+        <v>2.0470000000000002</v>
       </c>
       <c r="N143">
         <v>0.61499999999999999</v>
@@ -37060,22 +37101,22 @@
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C144">
-        <v>12.944000000000001</v>
+        <v>12.201000000000001</v>
       </c>
       <c r="D144">
-        <v>2.2029999999999998</v>
+        <v>1.897</v>
       </c>
       <c r="E144">
         <v>0.32</v>
       </c>
       <c r="F144">
-        <v>0.161</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="G144">
-        <v>0.45600000000000002</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="H144" t="s">
         <v>16</v>
@@ -37084,39 +37125,39 @@
         <v>16</v>
       </c>
       <c r="J144">
-        <v>228.999</v>
+        <v>233.61600000000001</v>
       </c>
       <c r="K144">
-        <v>181.19200000000001</v>
+        <v>173.08699999999999</v>
       </c>
       <c r="L144">
-        <v>4.0679999999999996</v>
+        <v>3.6509999999999998</v>
       </c>
       <c r="M144">
-        <v>2.0470000000000002</v>
+        <v>2.2029999999999998</v>
       </c>
       <c r="N144">
-        <v>0.61499999999999999</v>
+        <v>0.38500000000000001</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C145">
-        <v>12.201000000000001</v>
+        <v>11.837999999999999</v>
       </c>
       <c r="D145">
         <v>1.897</v>
       </c>
       <c r="E145">
-        <v>0.32</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="F145">
-        <v>0.38500000000000001</v>
+        <v>1.351</v>
       </c>
       <c r="G145">
-        <v>0.53300000000000003</v>
+        <v>0.70299999999999996</v>
       </c>
       <c r="H145" t="s">
         <v>16</v>
@@ -37125,16 +37166,16 @@
         <v>16</v>
       </c>
       <c r="J145">
-        <v>233.61600000000001</v>
+        <v>236.71799999999999</v>
       </c>
       <c r="K145">
-        <v>173.08699999999999</v>
+        <v>166.471</v>
       </c>
       <c r="L145">
         <v>3.6509999999999998</v>
       </c>
       <c r="M145">
-        <v>2.2029999999999998</v>
+        <v>2.532</v>
       </c>
       <c r="N145">
         <v>0.38500000000000001</v>
@@ -37142,10 +37183,10 @@
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146">
-        <v>11.837999999999999</v>
+        <v>10.78</v>
       </c>
       <c r="D146">
         <v>1.897</v>
@@ -37154,10 +37195,10 @@
         <v>0.26100000000000001</v>
       </c>
       <c r="F146">
-        <v>1.351</v>
+        <v>1.4790000000000001</v>
       </c>
       <c r="G146">
-        <v>0.70299999999999996</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="H146" t="s">
         <v>16</v>
@@ -37169,36 +37210,36 @@
         <v>236.71799999999999</v>
       </c>
       <c r="K146">
-        <v>166.471</v>
+        <v>163.86</v>
       </c>
       <c r="L146">
-        <v>3.6509999999999998</v>
+        <v>3.0659999999999998</v>
       </c>
       <c r="M146">
         <v>2.532</v>
       </c>
       <c r="N146">
-        <v>0.38500000000000001</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147">
-        <v>10.78</v>
+        <v>9.1240000000000006</v>
       </c>
       <c r="D147">
-        <v>1.897</v>
+        <v>1.613</v>
       </c>
       <c r="E147">
-        <v>0.26100000000000001</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="F147">
-        <v>1.4790000000000001</v>
+        <v>1.0009999999999999</v>
       </c>
       <c r="G147">
-        <v>0.61499999999999999</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="H147" t="s">
         <v>16</v>
@@ -37210,36 +37251,36 @@
         <v>236.71799999999999</v>
       </c>
       <c r="K147">
-        <v>163.86</v>
+        <v>162.56200000000001</v>
       </c>
       <c r="L147">
-        <v>3.0659999999999998</v>
+        <v>2.7040000000000002</v>
       </c>
       <c r="M147">
         <v>2.532</v>
       </c>
       <c r="N147">
-        <v>0.32</v>
+        <v>0.26100000000000001</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C148">
-        <v>9.1240000000000006</v>
+        <v>8.1959999999999997</v>
       </c>
       <c r="D148">
         <v>1.613</v>
       </c>
       <c r="E148">
-        <v>0.20799999999999999</v>
+        <v>0.161</v>
       </c>
       <c r="F148">
-        <v>1.0009999999999999</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="G148">
-        <v>0.45600000000000002</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="H148" t="s">
         <v>16</v>
@@ -37248,27 +37289,27 @@
         <v>16</v>
       </c>
       <c r="J148">
-        <v>236.71799999999999</v>
+        <v>232.072</v>
       </c>
       <c r="K148">
-        <v>162.56200000000001</v>
+        <v>159.98099999999999</v>
       </c>
       <c r="L148">
-        <v>2.7040000000000002</v>
+        <v>2.532</v>
       </c>
       <c r="M148">
-        <v>2.532</v>
+        <v>3.2559999999999998</v>
       </c>
       <c r="N148">
-        <v>0.26100000000000001</v>
+        <v>0.38500000000000001</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C149">
-        <v>8.1959999999999997</v>
+        <v>7.0330000000000004</v>
       </c>
       <c r="D149">
         <v>1.613</v>
@@ -37277,7 +37318,7 @@
         <v>0.161</v>
       </c>
       <c r="F149">
-        <v>0.38500000000000001</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="G149">
         <v>0.38500000000000001</v>
@@ -37289,24 +37330,24 @@
         <v>16</v>
       </c>
       <c r="J149">
-        <v>232.072</v>
+        <v>228.999</v>
       </c>
       <c r="K149">
-        <v>159.98099999999999</v>
+        <v>153.61699999999999</v>
       </c>
       <c r="L149">
         <v>2.532</v>
       </c>
       <c r="M149">
-        <v>3.2559999999999998</v>
+        <v>4.2850000000000001</v>
       </c>
       <c r="N149">
-        <v>0.38500000000000001</v>
+        <v>0.53300000000000003</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C150">
         <v>7.0330000000000004</v>
@@ -37318,10 +37359,10 @@
         <v>0.161</v>
       </c>
       <c r="F150">
+        <v>0.161</v>
+      </c>
+      <c r="G150">
         <v>0.26100000000000001</v>
-      </c>
-      <c r="G150">
-        <v>0.38500000000000001</v>
       </c>
       <c r="H150" t="s">
         <v>16</v>
@@ -37333,13 +37374,13 @@
         <v>228.999</v>
       </c>
       <c r="K150">
-        <v>153.61699999999999</v>
+        <v>147.37899999999999</v>
       </c>
       <c r="L150">
+        <v>2.2029999999999998</v>
+      </c>
+      <c r="M150">
         <v>2.532</v>
-      </c>
-      <c r="M150">
-        <v>4.2850000000000001</v>
       </c>
       <c r="N150">
         <v>0.53300000000000003</v>
@@ -37347,10 +37388,10 @@
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C151">
-        <v>7.0330000000000004</v>
+        <v>6.484</v>
       </c>
       <c r="D151">
         <v>1.613</v>
@@ -37359,7 +37400,7 @@
         <v>0.161</v>
       </c>
       <c r="F151">
-        <v>0.161</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="G151">
         <v>0.26100000000000001</v>
@@ -37371,77 +37412,77 @@
         <v>16</v>
       </c>
       <c r="J151">
-        <v>228.999</v>
+        <v>235.16499999999999</v>
       </c>
       <c r="K151">
-        <v>147.37899999999999</v>
+        <v>146.14599999999999</v>
       </c>
       <c r="L151">
         <v>2.2029999999999998</v>
       </c>
       <c r="M151">
-        <v>2.532</v>
+        <v>2.2029999999999998</v>
       </c>
       <c r="N151">
-        <v>0.53300000000000003</v>
+        <v>0.45600000000000002</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C152">
         <v>6.484</v>
       </c>
       <c r="D152">
-        <v>1.613</v>
+        <v>1.351</v>
       </c>
       <c r="E152">
-        <v>0.161</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="F152">
-        <v>0.20799999999999999</v>
+        <v>0.32</v>
       </c>
       <c r="G152">
-        <v>0.26100000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="H152" t="s">
         <v>16</v>
       </c>
-      <c r="I152" t="s">
-        <v>16</v>
+      <c r="I152">
+        <v>310.01799999999997</v>
       </c>
       <c r="J152">
-        <v>235.16499999999999</v>
+        <v>236.71799999999999</v>
       </c>
       <c r="K152">
-        <v>146.14599999999999</v>
+        <v>144.91900000000001</v>
       </c>
       <c r="L152">
         <v>2.2029999999999998</v>
       </c>
       <c r="M152">
-        <v>2.2029999999999998</v>
+        <v>1.752</v>
       </c>
       <c r="N152">
-        <v>0.45600000000000002</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C153">
-        <v>6.484</v>
+        <v>5.9569999999999999</v>
       </c>
       <c r="D153">
         <v>1.351</v>
       </c>
       <c r="E153">
-        <v>0.26100000000000001</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="F153">
-        <v>0.32</v>
+        <v>0.161</v>
       </c>
       <c r="G153">
         <v>0.32</v>
@@ -37450,60 +37491,60 @@
         <v>16</v>
       </c>
       <c r="I153">
-        <v>310.01799999999997</v>
+        <v>320.75900000000001</v>
       </c>
       <c r="J153">
         <v>236.71799999999999</v>
       </c>
       <c r="K153">
-        <v>144.91900000000001</v>
+        <v>142.47900000000001</v>
       </c>
       <c r="L153">
-        <v>2.2029999999999998</v>
+        <v>1.897</v>
       </c>
       <c r="M153">
-        <v>1.752</v>
+        <v>1.2290000000000001</v>
       </c>
       <c r="N153">
-        <v>0.32</v>
+        <v>0.26100000000000001</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C154">
-        <v>5.9569999999999999</v>
+        <v>5.2080000000000002</v>
       </c>
       <c r="D154">
-        <v>1.351</v>
+        <v>1.1120000000000001</v>
       </c>
       <c r="E154">
-        <v>0.38500000000000001</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="F154">
         <v>0.161</v>
       </c>
       <c r="G154">
-        <v>0.32</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="H154" t="s">
         <v>16</v>
       </c>
       <c r="I154">
-        <v>320.75900000000001</v>
+        <v>329.846</v>
       </c>
       <c r="J154">
-        <v>236.71799999999999</v>
+        <v>238.27699999999999</v>
       </c>
       <c r="K154">
-        <v>142.47900000000001</v>
+        <v>137.661</v>
       </c>
       <c r="L154">
         <v>1.897</v>
       </c>
       <c r="M154">
-        <v>1.2290000000000001</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="N154">
         <v>0.26100000000000001</v>
@@ -37511,81 +37552,81 @@
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C155">
-        <v>5.2080000000000002</v>
+        <v>4.508</v>
       </c>
       <c r="D155">
-        <v>1.1120000000000001</v>
+        <v>1.0009999999999999</v>
       </c>
       <c r="E155">
-        <v>0.53300000000000003</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="F155">
-        <v>0.161</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="G155">
-        <v>0.53300000000000003</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="H155" t="s">
         <v>16</v>
       </c>
       <c r="I155">
-        <v>329.846</v>
+        <v>335.358</v>
       </c>
       <c r="J155">
-        <v>238.27699999999999</v>
+        <v>236.71799999999999</v>
       </c>
       <c r="K155">
-        <v>137.661</v>
+        <v>134.1</v>
       </c>
       <c r="L155">
-        <v>1.897</v>
+        <v>1.613</v>
       </c>
       <c r="M155">
         <v>0.89600000000000002</v>
       </c>
       <c r="N155">
-        <v>0.26100000000000001</v>
+        <v>17.850000000000001</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C156">
-        <v>4.508</v>
+        <v>4.2850000000000001</v>
       </c>
       <c r="D156">
-        <v>1.0009999999999999</v>
+        <v>0.79700000000000004</v>
       </c>
       <c r="E156">
-        <v>0.89600000000000002</v>
+        <v>1.4790000000000001</v>
       </c>
       <c r="F156">
-        <v>0.26100000000000001</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="G156">
-        <v>0.61499999999999999</v>
+        <v>0.70299999999999996</v>
       </c>
       <c r="H156" t="s">
         <v>16</v>
       </c>
       <c r="I156">
-        <v>335.358</v>
+        <v>333.51600000000002</v>
       </c>
       <c r="J156">
-        <v>236.71799999999999</v>
+        <v>235.16499999999999</v>
       </c>
       <c r="K156">
-        <v>134.1</v>
+        <v>128.267</v>
       </c>
       <c r="L156">
         <v>1.613</v>
       </c>
       <c r="M156">
-        <v>0.89600000000000002</v>
+        <v>0.70299999999999996</v>
       </c>
       <c r="N156">
         <v>17.850000000000001</v>
@@ -37593,22 +37634,22 @@
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C157">
-        <v>4.2850000000000001</v>
+        <v>3.6509999999999998</v>
       </c>
       <c r="D157">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="E157">
+        <v>1.613</v>
+      </c>
+      <c r="F157">
         <v>0.79700000000000004</v>
       </c>
-      <c r="E157">
-        <v>1.4790000000000001</v>
-      </c>
-      <c r="F157">
-        <v>0.53300000000000003</v>
-      </c>
       <c r="G157">
-        <v>0.70299999999999996</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="H157" t="s">
         <v>16</v>
@@ -37617,16 +37658,16 @@
         <v>333.51600000000002</v>
       </c>
       <c r="J157">
-        <v>235.16499999999999</v>
+        <v>238.27699999999999</v>
       </c>
       <c r="K157">
-        <v>128.267</v>
+        <v>127.11499999999999</v>
       </c>
       <c r="L157">
         <v>1.613</v>
       </c>
       <c r="M157">
-        <v>0.70299999999999996</v>
+        <v>1.2290000000000001</v>
       </c>
       <c r="N157">
         <v>17.850000000000001</v>
@@ -37634,19 +37675,19 @@
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C158">
-        <v>3.6509999999999998</v>
+        <v>3.4510000000000001</v>
       </c>
       <c r="D158">
-        <v>0.70299999999999996</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="E158">
-        <v>1.613</v>
+        <v>1.897</v>
       </c>
       <c r="F158">
-        <v>0.79700000000000004</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="G158">
         <v>0.45600000000000002</v>
@@ -37655,39 +37696,39 @@
         <v>16</v>
       </c>
       <c r="I158">
-        <v>333.51600000000002</v>
+        <v>335.358</v>
       </c>
       <c r="J158">
-        <v>238.27699999999999</v>
+        <v>219.90199999999999</v>
       </c>
       <c r="K158">
-        <v>127.11499999999999</v>
+        <v>125.96899999999999</v>
       </c>
       <c r="L158">
-        <v>1.613</v>
+        <v>1.4790000000000001</v>
       </c>
       <c r="M158">
-        <v>1.2290000000000001</v>
+        <v>1.0009999999999999</v>
       </c>
       <c r="N158">
-        <v>17.850000000000001</v>
+        <v>22.523</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C159">
         <v>3.4510000000000001</v>
       </c>
       <c r="D159">
-        <v>0.89600000000000002</v>
+        <v>1.1120000000000001</v>
       </c>
       <c r="E159">
         <v>1.897</v>
       </c>
       <c r="F159">
-        <v>0.89600000000000002</v>
+        <v>1.0009999999999999</v>
       </c>
       <c r="G159">
         <v>0.45600000000000002</v>
@@ -37696,39 +37737,39 @@
         <v>16</v>
       </c>
       <c r="I159">
-        <v>335.358</v>
+        <v>278.86799999999999</v>
       </c>
       <c r="J159">
-        <v>219.90199999999999</v>
+        <v>216.90899999999999</v>
       </c>
       <c r="K159">
-        <v>125.96899999999999</v>
+        <v>123.691</v>
       </c>
       <c r="L159">
-        <v>1.4790000000000001</v>
+        <v>1.351</v>
       </c>
       <c r="M159">
-        <v>1.0009999999999999</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="N159">
-        <v>22.523</v>
+        <v>0.26100000000000001</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C160">
-        <v>3.4510000000000001</v>
+        <v>3.2559999999999998</v>
       </c>
       <c r="D160">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="E160">
+        <v>2.0470000000000002</v>
+      </c>
+      <c r="F160">
         <v>1.1120000000000001</v>
-      </c>
-      <c r="E160">
-        <v>1.897</v>
-      </c>
-      <c r="F160">
-        <v>1.0009999999999999</v>
       </c>
       <c r="G160">
         <v>0.45600000000000002</v>
@@ -37737,19 +37778,19 @@
         <v>16</v>
       </c>
       <c r="I160">
-        <v>278.86799999999999</v>
+        <v>224.428</v>
       </c>
       <c r="J160">
-        <v>216.90899999999999</v>
+        <v>219.90199999999999</v>
       </c>
       <c r="K160">
-        <v>123.691</v>
+        <v>121.434</v>
       </c>
       <c r="L160">
-        <v>1.351</v>
+        <v>1.2290000000000001</v>
       </c>
       <c r="M160">
-        <v>0.89600000000000002</v>
+        <v>0.70299999999999996</v>
       </c>
       <c r="N160">
         <v>0.26100000000000001</v>
@@ -37757,40 +37798,40 @@
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C161">
-        <v>3.2559999999999998</v>
+        <v>3.0659999999999998</v>
       </c>
       <c r="D161">
-        <v>1.0009999999999999</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="E161">
-        <v>2.0470000000000002</v>
+        <v>1.4790000000000001</v>
       </c>
       <c r="F161">
         <v>1.1120000000000001</v>
       </c>
-      <c r="G161">
-        <v>0.45600000000000002</v>
+      <c r="G161" t="s">
+        <v>16</v>
       </c>
       <c r="H161" t="s">
         <v>16</v>
       </c>
       <c r="I161">
-        <v>224.428</v>
+        <v>208.05099999999999</v>
       </c>
       <c r="J161">
-        <v>219.90199999999999</v>
+        <v>227.471</v>
       </c>
       <c r="K161">
-        <v>121.434</v>
+        <v>114.783</v>
       </c>
       <c r="L161">
         <v>1.2290000000000001</v>
       </c>
       <c r="M161">
-        <v>0.70299999999999996</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="N161">
         <v>0.26100000000000001</v>
@@ -37798,7 +37839,7 @@
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C162">
         <v>3.0659999999999998</v>
@@ -37807,7 +37848,7 @@
         <v>0.89600000000000002</v>
       </c>
       <c r="E162">
-        <v>1.4790000000000001</v>
+        <v>1.1120000000000001</v>
       </c>
       <c r="F162">
         <v>1.1120000000000001</v>
@@ -37819,16 +37860,16 @@
         <v>16</v>
       </c>
       <c r="I162">
-        <v>208.05099999999999</v>
+        <v>193.68899999999999</v>
       </c>
       <c r="J162">
-        <v>227.471</v>
+        <v>233.61600000000001</v>
       </c>
       <c r="K162">
-        <v>114.783</v>
+        <v>21.545999999999999</v>
       </c>
       <c r="L162">
-        <v>1.2290000000000001</v>
+        <v>1.1120000000000001</v>
       </c>
       <c r="M162">
         <v>0.53300000000000003</v>
@@ -37839,19 +37880,19 @@
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C163">
-        <v>3.0659999999999998</v>
+        <v>2.532</v>
       </c>
       <c r="D163">
         <v>0.89600000000000002</v>
       </c>
       <c r="E163">
-        <v>1.1120000000000001</v>
+        <v>1.0009999999999999</v>
       </c>
       <c r="F163">
-        <v>1.1120000000000001</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="G163" t="s">
         <v>16</v>
@@ -37860,13 +37901,13 @@
         <v>16</v>
       </c>
       <c r="I163">
-        <v>193.68899999999999</v>
+        <v>185.31299999999999</v>
       </c>
       <c r="J163">
-        <v>233.61600000000001</v>
+        <v>235.16499999999999</v>
       </c>
       <c r="K163">
-        <v>21.545999999999999</v>
+        <v>18.742000000000001</v>
       </c>
       <c r="L163">
         <v>1.1120000000000001</v>
@@ -37880,7 +37921,7 @@
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C164">
         <v>2.532</v>
@@ -37889,10 +37930,10 @@
         <v>0.89600000000000002</v>
       </c>
       <c r="E164">
-        <v>1.0009999999999999</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="F164">
-        <v>0.89600000000000002</v>
+        <v>0.70299999999999996</v>
       </c>
       <c r="G164" t="s">
         <v>16</v>
@@ -37901,19 +37942,19 @@
         <v>16</v>
       </c>
       <c r="I164">
-        <v>185.31299999999999</v>
+        <v>178.47</v>
       </c>
       <c r="J164">
-        <v>235.16499999999999</v>
+        <v>233.61600000000001</v>
       </c>
       <c r="K164">
-        <v>18.742000000000001</v>
+        <v>16.13</v>
       </c>
       <c r="L164">
         <v>1.1120000000000001</v>
       </c>
       <c r="M164">
-        <v>0.53300000000000003</v>
+        <v>0.32</v>
       </c>
       <c r="N164">
         <v>0.26100000000000001</v>
@@ -37921,19 +37962,19 @@
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C165">
         <v>2.532</v>
       </c>
       <c r="D165">
-        <v>0.89600000000000002</v>
+        <v>0.70299999999999996</v>
       </c>
       <c r="E165">
-        <v>0.89600000000000002</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="F165">
-        <v>0.70299999999999996</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="G165" t="s">
         <v>16</v>
@@ -37942,27 +37983,27 @@
         <v>16</v>
       </c>
       <c r="I165">
-        <v>178.47</v>
+        <v>170.42500000000001</v>
       </c>
       <c r="J165">
-        <v>233.61600000000001</v>
+        <v>225.947</v>
       </c>
       <c r="K165">
-        <v>16.13</v>
+        <v>13.324</v>
       </c>
       <c r="L165">
         <v>1.1120000000000001</v>
       </c>
       <c r="M165">
-        <v>0.32</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="N165">
-        <v>0.26100000000000001</v>
+        <v>22.523</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C166">
         <v>2.532</v>
@@ -37971,7 +38012,7 @@
         <v>0.70299999999999996</v>
       </c>
       <c r="E166">
-        <v>0.45600000000000002</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="F166">
         <v>0.61499999999999999</v>
@@ -37986,10 +38027,10 @@
         <v>170.42500000000001</v>
       </c>
       <c r="J166">
-        <v>225.947</v>
+        <v>218.40299999999999</v>
       </c>
       <c r="K166">
-        <v>13.324</v>
+        <v>11.127000000000001</v>
       </c>
       <c r="L166">
         <v>1.1120000000000001</v>
@@ -37998,21 +38039,21 @@
         <v>0.26100000000000001</v>
       </c>
       <c r="N166">
-        <v>22.523</v>
+        <v>17.850000000000001</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C167">
         <v>2.532</v>
       </c>
-      <c r="D167">
-        <v>0.70299999999999996</v>
+      <c r="D167" t="s">
+        <v>14</v>
       </c>
       <c r="E167">
-        <v>0.38500000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="F167">
         <v>0.61499999999999999</v>
@@ -38024,13 +38065,13 @@
         <v>16</v>
       </c>
       <c r="I167">
-        <v>170.42500000000001</v>
+        <v>178.47</v>
       </c>
       <c r="J167">
-        <v>218.40299999999999</v>
+        <v>212.45699999999999</v>
       </c>
       <c r="K167">
-        <v>11.127000000000001</v>
+        <v>8.8089999999999993</v>
       </c>
       <c r="L167">
         <v>1.1120000000000001</v>
@@ -38044,7 +38085,7 @@
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C168">
         <v>2.532</v>
@@ -38053,7 +38094,7 @@
         <v>14</v>
       </c>
       <c r="E168">
-        <v>0.32</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="F168">
         <v>0.61499999999999999</v>
@@ -38065,16 +38106,16 @@
         <v>16</v>
       </c>
       <c r="I168">
-        <v>178.47</v>
+        <v>189.47800000000001</v>
       </c>
       <c r="J168">
-        <v>212.45699999999999</v>
+        <v>206.59200000000001</v>
       </c>
       <c r="K168">
-        <v>8.8089999999999993</v>
+        <v>6.7560000000000002</v>
       </c>
       <c r="L168">
-        <v>1.1120000000000001</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="M168">
         <v>0.26100000000000001</v>
@@ -38085,7 +38126,7 @@
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C169">
         <v>2.532</v>
@@ -38096,72 +38137,31 @@
       <c r="E169">
         <v>0.26100000000000001</v>
       </c>
-      <c r="F169">
-        <v>0.61499999999999999</v>
+      <c r="F169" t="s">
+        <v>14</v>
       </c>
       <c r="G169" t="s">
         <v>16</v>
       </c>
       <c r="H169" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I169">
-        <v>189.47800000000001</v>
+        <v>203.69</v>
       </c>
       <c r="J169">
-        <v>206.59200000000001</v>
-      </c>
-      <c r="K169">
-        <v>6.7560000000000002</v>
+        <v>202.24600000000001</v>
+      </c>
+      <c r="K169" t="s">
+        <v>14</v>
       </c>
       <c r="L169">
         <v>0.89600000000000002</v>
       </c>
-      <c r="M169">
-        <v>0.26100000000000001</v>
+      <c r="M169" t="s">
+        <v>14</v>
       </c>
       <c r="N169">
-        <v>17.850000000000001</v>
-      </c>
-    </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A170">
-        <v>31</v>
-      </c>
-      <c r="C170">
-        <v>2.532</v>
-      </c>
-      <c r="D170" t="s">
-        <v>14</v>
-      </c>
-      <c r="E170">
-        <v>0.26100000000000001</v>
-      </c>
-      <c r="F170" t="s">
-        <v>14</v>
-      </c>
-      <c r="G170" t="s">
-        <v>16</v>
-      </c>
-      <c r="H170" t="s">
-        <v>14</v>
-      </c>
-      <c r="I170">
-        <v>203.69</v>
-      </c>
-      <c r="J170">
-        <v>202.24600000000001</v>
-      </c>
-      <c r="K170" t="s">
-        <v>14</v>
-      </c>
-      <c r="L170">
-        <v>0.89600000000000002</v>
-      </c>
-      <c r="M170" t="s">
-        <v>14</v>
-      </c>
-      <c r="N170">
         <v>17.850000000000001</v>
       </c>
     </row>
@@ -38174,7 +38174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A3:N170"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
